--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutch\Documents\Internship\CCGetMAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work fouth years\ฝึกงาน\MAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
+    <sheet name="ปัจจุบัน (10-6-2559)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="451">
   <si>
     <t>IP Address</t>
   </si>
@@ -806,295 +807,574 @@
     <t>161.200.145.255</t>
   </si>
   <si>
+    <t>0080488596d5</t>
+  </si>
+  <si>
+    <t>OPAC401</t>
+  </si>
+  <si>
+    <t>ฝ่ายบริการผู้อ่านห้องมนุษย์ศาสตร์ ชั้น 4</t>
+  </si>
+  <si>
+    <t>OPAC201</t>
+  </si>
+  <si>
+    <t>ห้องอ่านวารสารชั้น 2</t>
+  </si>
+  <si>
+    <t>0080488540b3</t>
+  </si>
+  <si>
+    <t>OPAC104</t>
+  </si>
+  <si>
+    <t>บริการ OPAC ชั้น 1</t>
+  </si>
+  <si>
+    <t>OPAC-REF11</t>
+  </si>
+  <si>
+    <t>เคาน์เตอร์บริการตอบคำถาม</t>
+  </si>
+  <si>
+    <t>008048853402</t>
+  </si>
+  <si>
+    <t>008048853342</t>
+  </si>
+  <si>
+    <t>008048853491</t>
+  </si>
+  <si>
+    <t>08002b3dedb</t>
+  </si>
+  <si>
+    <t>OPAC-thesis01</t>
+  </si>
+  <si>
+    <t>เคาน์เตอร์บริการตัวเล่มวิทยานิพนธ์</t>
+  </si>
+  <si>
+    <t>OPAC-IIC06</t>
+  </si>
+  <si>
+    <t>เคาน์เตอร์บริการของ IIC ชั้น 5</t>
+  </si>
+  <si>
+    <t>008048863415</t>
+  </si>
+  <si>
+    <t>OPAC106</t>
+  </si>
+  <si>
+    <t>00804886bed0</t>
+  </si>
+  <si>
+    <t>OPAC107</t>
+  </si>
+  <si>
+    <t>0000f4905882</t>
+  </si>
+  <si>
+    <t>OPAC105</t>
+  </si>
+  <si>
+    <t>00804885c3bc</t>
+  </si>
+  <si>
+    <t>OPAC109</t>
+  </si>
+  <si>
+    <t>008048853ea2</t>
+  </si>
+  <si>
+    <t>OPAC303</t>
+  </si>
+  <si>
+    <t>ห้องอ่าน(100,200,700,900) ชั้น 5</t>
+  </si>
+  <si>
+    <t>000c76eac6fe</t>
+  </si>
+  <si>
+    <t>000c76dde7eb</t>
+  </si>
+  <si>
+    <t>000c76dde7d9</t>
+  </si>
+  <si>
+    <t>50FIN1</t>
+  </si>
+  <si>
+    <t>50FIN2</t>
+  </si>
+  <si>
+    <t>50FIN3</t>
+  </si>
+  <si>
+    <t>สนล.</t>
+  </si>
+  <si>
+    <t>00c0d0fad925f</t>
+  </si>
+  <si>
+    <t>008048b89cbd</t>
+  </si>
+  <si>
+    <t>00c0df4a77c3</t>
+  </si>
+  <si>
+    <t>0040052f0ca9</t>
+  </si>
+  <si>
+    <t>0040052eed6a</t>
+  </si>
+  <si>
+    <t>0040052f20c7</t>
+  </si>
+  <si>
+    <t>008048fb5b32</t>
+  </si>
+  <si>
+    <t>000c76dde7f0</t>
+  </si>
+  <si>
+    <t>OPAC403</t>
+  </si>
+  <si>
+    <t>OPAC406</t>
+  </si>
+  <si>
+    <t>OPAC505</t>
+  </si>
+  <si>
+    <t>OPAC404</t>
+  </si>
+  <si>
+    <t>OPAC506</t>
+  </si>
+  <si>
+    <t>CLELIB</t>
+  </si>
+  <si>
+    <t>ISD18</t>
+  </si>
+  <si>
+    <t>ฝ่ายบริการผู้อ่านห้องวิทยาศาสตร์ ชั้น 4</t>
+  </si>
+  <si>
+    <t>ฝ่ายบริการผู้อ่านห้องมนุษศาสตร์ ชั้น 4</t>
+  </si>
+  <si>
+    <t>ห้องอ่านหมวด(300)ชั้น 5</t>
+  </si>
+  <si>
+    <t>ฝ่ายบริการผู้อ่านหมวด(300)ชั้น 5</t>
+  </si>
+  <si>
+    <t>Server Farm</t>
+  </si>
+  <si>
+    <t>เครื่องเยลลี่</t>
+  </si>
+  <si>
+    <t>000f2301bfc0</t>
+  </si>
+  <si>
+    <t>145GATEWAY</t>
+  </si>
+  <si>
+    <t>0000AAD54138</t>
+  </si>
+  <si>
+    <t>XEROX CORPORATION</t>
+  </si>
+  <si>
+    <t>F4CE4648B43A</t>
+  </si>
+  <si>
+    <t>NPI48B43A</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard Company</t>
+  </si>
+  <si>
+    <t>9CB6541BB40E</t>
+  </si>
+  <si>
+    <t>NPI1BB40E</t>
+  </si>
+  <si>
+    <t>00:0C:29:D4:D1:AC</t>
+  </si>
+  <si>
+    <t>VMware, Inc.</t>
+  </si>
+  <si>
+    <t>00:00:00:00:00:00</t>
+  </si>
+  <si>
+    <t>_x0001__x0002___MSBROWSE___x0002_</t>
+  </si>
+  <si>
+    <t>hp LaserJet 400 color mfp m475dn</t>
+  </si>
+  <si>
+    <t>02:49:BE:A7:B6:F8</t>
+  </si>
+  <si>
+    <t>00:02:65:14:C1:A8</t>
+  </si>
+  <si>
+    <t>Virditech Co. Ltd.</t>
+  </si>
+  <si>
+    <t>00:02:65:14:C1:A6</t>
+  </si>
+  <si>
+    <t>00:02:65:14:C2:1C</t>
+  </si>
+  <si>
+    <t>00:02:65:14:C1:BF</t>
+  </si>
+  <si>
+    <t>30:CD:A7:14:60:19</t>
+  </si>
+  <si>
+    <t>SEC30CDA7146019</t>
+  </si>
+  <si>
+    <t>m332x382x402x series (Samsung Electronics ITS, Printer division)</t>
+  </si>
+  <si>
+    <t>00:A0:98:9E:BD:40</t>
+  </si>
+  <si>
+    <t>NetApp</t>
+  </si>
+  <si>
+    <t>00:A0:98:9E:BD:1C</t>
+  </si>
+  <si>
+    <t>96:43:17:07:24:AA</t>
+  </si>
+  <si>
+    <t>ISD2003_2</t>
+  </si>
+  <si>
+    <t>92:07:E9:0A:E1:D0</t>
+  </si>
+  <si>
+    <t>ISD2003</t>
+  </si>
+  <si>
+    <t>00:21:91:F0:BE:E0</t>
+  </si>
+  <si>
+    <t>D-Link Corporation</t>
+  </si>
+  <si>
+    <t>00:21:91:F0:BF:9E</t>
+  </si>
+  <si>
+    <t>00:21:91:9B:F7:00</t>
+  </si>
+  <si>
+    <t>00:1E:C1:92:BA:60</t>
+  </si>
+  <si>
+    <t>3COM EUROPE LTD</t>
+  </si>
+  <si>
+    <t>40:A6:E8:33:28:47</t>
+  </si>
+  <si>
+    <t>88:90:8D:B1:57:C0</t>
+  </si>
+  <si>
     <t>0003ba2f922f</t>
   </si>
   <si>
+    <t>ELSONE</t>
+  </si>
+  <si>
     <t>08002b397f60</t>
   </si>
   <si>
+    <t>MAIL2</t>
+  </si>
+  <si>
     <t>00065b1a8999</t>
   </si>
   <si>
+    <t>CARWEB</t>
+  </si>
+  <si>
     <t>0000f803d491</t>
   </si>
   <si>
+    <t>MAIL</t>
+  </si>
+  <si>
     <t>00c09f3492eb</t>
   </si>
   <si>
+    <t>AVSERV1 ????</t>
+  </si>
+  <si>
+    <t>Server Farm ???</t>
+  </si>
+  <si>
     <t>00c04f5cd8ef</t>
   </si>
   <si>
+    <t>Ratanasuksa.com</t>
+  </si>
+  <si>
     <t>00065b1a89a0</t>
   </si>
   <si>
+    <t>CARWEB2</t>
+  </si>
+  <si>
+    <t>Server Farm / เดิมคือ Netg</t>
+  </si>
+  <si>
     <t>08002080f034</t>
   </si>
   <si>
+    <t>UNICON</t>
+  </si>
+  <si>
     <t>000347a64be1</t>
   </si>
   <si>
+    <t>ILL(MUA D74)</t>
+  </si>
+  <si>
+    <t>Server Farm / 18 ก.พ. 2546</t>
+  </si>
+  <si>
     <t>000347a64739</t>
   </si>
   <si>
+    <t>DCMS</t>
+  </si>
+  <si>
+    <t>Server Farm / 18 ก.พ. 2547</t>
+  </si>
+  <si>
+    <t>วิยานิพนท์</t>
+  </si>
+  <si>
+    <t>OPAC 113</t>
+  </si>
+  <si>
+    <t>OPAC 111</t>
+  </si>
+  <si>
+    <t>OPAC 112</t>
+  </si>
+  <si>
     <t>0003ba298627</t>
   </si>
   <si>
+    <t>DCMS Mirror</t>
+  </si>
+  <si>
     <t>0800370da138</t>
   </si>
   <si>
+    <t>DCPrint</t>
+  </si>
+  <si>
+    <t>หน้าห้องจ่าย-รับ</t>
+  </si>
+  <si>
+    <t>จ่าย-รับอัตโนมัติ</t>
+  </si>
+  <si>
     <t>30-32 Reserve for selfcheck</t>
   </si>
   <si>
+    <t>00508b670ecc</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
     <t>00025507302f</t>
   </si>
   <si>
-    <t>00508b670ecc</t>
+    <t>JUBILEE</t>
   </si>
   <si>
     <t>0003ba8977a1</t>
   </si>
   <si>
+    <t>BLACKBOARD2</t>
+  </si>
+  <si>
     <t>0003ba02100a</t>
   </si>
   <si>
+    <t>BLACKBOARD</t>
+  </si>
+  <si>
     <t>0050baaa79b6</t>
   </si>
   <si>
+    <t>WEBCACHE</t>
+  </si>
+  <si>
+    <t>บริการสังคมใกล้เคาน์เตอร์รับฝากของ</t>
+  </si>
+  <si>
     <t>000bdbad9afe</t>
   </si>
   <si>
+    <t>CDONLINE</t>
+  </si>
+  <si>
     <t>00a0c9d18bdd</t>
   </si>
   <si>
+    <t>WB-CU</t>
+  </si>
+  <si>
     <t>009027cc6a22</t>
   </si>
   <si>
+    <t>HIS</t>
+  </si>
+  <si>
     <t>00a0c9db99fa</t>
   </si>
   <si>
+    <t>PROXY</t>
+  </si>
+  <si>
     <t>00H44881b7dc</t>
   </si>
   <si>
+    <t>OPAC203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ห้องอ่านวารสารชั้น 2 </t>
+  </si>
+  <si>
     <t>00a0c9cca58b</t>
   </si>
   <si>
+    <t>CDNET2</t>
+  </si>
+  <si>
     <t>900d56ee4f41</t>
   </si>
   <si>
+    <t>CAR_PC_ISD01NEW</t>
+  </si>
+  <si>
     <t>000c76dde749</t>
   </si>
   <si>
+    <t>IIC12</t>
+  </si>
+  <si>
     <t>000d60042ae9</t>
   </si>
   <si>
+    <t>CIR08</t>
+  </si>
+  <si>
+    <t>เคาน์เตอร์บริการจ่าย-รับ</t>
+  </si>
+  <si>
     <t>000c76dde72c</t>
   </si>
   <si>
+    <t>CIR12</t>
+  </si>
+  <si>
     <t>000d60042afe</t>
   </si>
   <si>
+    <t>CIR09</t>
+  </si>
+  <si>
     <t>000c76dde684</t>
   </si>
   <si>
+    <t>CIR10</t>
+  </si>
+  <si>
     <t>0060b01ebs41</t>
   </si>
   <si>
+    <t>ISD-DESKJET1600</t>
+  </si>
+  <si>
+    <t>ฝ่ายระบบสารสนเทศ</t>
+  </si>
+  <si>
     <t>080009aa3330</t>
   </si>
   <si>
+    <t>ISD Laserjet5</t>
+  </si>
+  <si>
     <t>0001e6e17924</t>
   </si>
   <si>
+    <t>ISD-HP2200D</t>
+  </si>
+  <si>
     <t>002035e4cc64</t>
   </si>
   <si>
+    <t>WEBOPAC-PUB1</t>
+  </si>
+  <si>
     <t>0080488532f4</t>
   </si>
   <si>
+    <t>ฝ่ายวิเคราะห์</t>
+  </si>
+  <si>
     <t>008048853d10</t>
   </si>
   <si>
     <t>0080488543be</t>
   </si>
   <si>
+    <t>ห้องอ่านหมวด(300) ชั้น 5</t>
+  </si>
+  <si>
     <t>008048853309</t>
   </si>
   <si>
     <t>008048825fa8</t>
   </si>
   <si>
+    <t>บริการ OPAC ชั้น 2</t>
+  </si>
+  <si>
+    <t>008048853461</t>
+  </si>
+  <si>
     <t>008048853d25</t>
   </si>
   <si>
-    <t>008048853461</t>
+    <t>ฝ่ายบริการผู้อ่านห้องมนุษยศาสตร์ ชั้น 4</t>
   </si>
   <si>
     <t>00804885344c</t>
   </si>
   <si>
+    <t xml:space="preserve">บริการ OPAC ชั้น 1 </t>
+  </si>
+  <si>
     <t>0080488596d3</t>
-  </si>
-  <si>
-    <t>ELSONE</t>
-  </si>
-  <si>
-    <t>Server Farm</t>
-  </si>
-  <si>
-    <t>MAIL2</t>
-  </si>
-  <si>
-    <t>CARWEB</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>AVSERV1 ????</t>
-  </si>
-  <si>
-    <t>Server Farm ???</t>
-  </si>
-  <si>
-    <t>Ratanasuksa.com</t>
-  </si>
-  <si>
-    <t>CARWEB2</t>
-  </si>
-  <si>
-    <t>Server Farm / เดิมคือ Netg</t>
-  </si>
-  <si>
-    <t>UNICON</t>
-  </si>
-  <si>
-    <t>ILL(MUA D74)</t>
-  </si>
-  <si>
-    <t>Server Farm / 18 ก.พ. 2546</t>
-  </si>
-  <si>
-    <t>Server Farm / 18 ก.พ. 2547</t>
-  </si>
-  <si>
-    <t>DCMS</t>
-  </si>
-  <si>
-    <t>วิยานิพนท์</t>
-  </si>
-  <si>
-    <t>OPAC 113</t>
-  </si>
-  <si>
-    <t>OPAC 112</t>
-  </si>
-  <si>
-    <t>OPAC 111</t>
-  </si>
-  <si>
-    <t>DCMS Mirror</t>
-  </si>
-  <si>
-    <t>DCPrint</t>
-  </si>
-  <si>
-    <t>หน้าห้องจ่าย-รับ</t>
-  </si>
-  <si>
-    <t>จ่าย-รับอัตโนมัติ</t>
-  </si>
-  <si>
-    <t>JUBILEE</t>
-  </si>
-  <si>
-    <t>BLACKBOARD</t>
-  </si>
-  <si>
-    <t>BLACKBOARD2</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>WEBCACHE</t>
-  </si>
-  <si>
-    <t>บริการสังคมใกล้เคาน์เตอร์รับฝากของ</t>
-  </si>
-  <si>
-    <t>CDONLINE</t>
-  </si>
-  <si>
-    <t>WB-CU</t>
-  </si>
-  <si>
-    <t>HIS</t>
-  </si>
-  <si>
-    <t>PROXY</t>
-  </si>
-  <si>
-    <t>OPAC203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ห้องอ่านวารสารชั้น 2 </t>
-  </si>
-  <si>
-    <t>CDNET2</t>
-  </si>
-  <si>
-    <t>CAR_PC_ISD01NEW</t>
-  </si>
-  <si>
-    <t>IIC12</t>
-  </si>
-  <si>
-    <t>CIR08</t>
-  </si>
-  <si>
-    <t>CIR12</t>
-  </si>
-  <si>
-    <t>CIR09</t>
-  </si>
-  <si>
-    <t>CIR10</t>
-  </si>
-  <si>
-    <t>เคาน์เตอร์บริการจ่าย-รับ</t>
-  </si>
-  <si>
-    <t>ISD-DESKJET1600</t>
-  </si>
-  <si>
-    <t>ISD Laserjet5</t>
-  </si>
-  <si>
-    <t>ISD-HP2200D</t>
-  </si>
-  <si>
-    <t>WEBOPAC-PUB1</t>
-  </si>
-  <si>
-    <t>ฝ่ายระบบสารสนเทศ</t>
-  </si>
-  <si>
-    <t>ฝ่ายวิเคราะห์</t>
-  </si>
-  <si>
-    <t>บริการ OPAC ชั้น 1</t>
-  </si>
-  <si>
-    <t>ห้องอ่านหมวด(300) ชั้น 5</t>
-  </si>
-  <si>
-    <t>บริการ OPAC ชั้น 2</t>
-  </si>
-  <si>
-    <t>ฝ่ายบริการผู้อ่านห้องมนุษยศาสตร์ ชั้น 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริการ OPAC ชั้น 1 </t>
   </si>
   <si>
     <t>ฝ่ายบริการผู้อ่านห้องสมุดมนุษยศาสตร์ ชั้น 4</t>
@@ -1103,12 +1383,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1133,15 +1413,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1421,23 +1711,2310 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="3"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" s="3"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" s="3"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="3"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" s="3"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="3"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1450,1796 +4027,2682 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>260</v>
+      <c r="B2" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>261</v>
+      <c r="B3" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>262</v>
+      <c r="B4" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>263</v>
+      <c r="B5" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>264</v>
+      <c r="B8" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>265</v>
+      <c r="B10" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>266</v>
+      <c r="B12" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>267</v>
+      <c r="B14" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>268</v>
+      <c r="B15" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>269</v>
+      <c r="B16" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
+      <c r="B17" s="4"/>
       <c r="C17" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
+      <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>382</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>270</v>
+      <c r="B23" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="C23" t="s">
-        <v>322</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>378</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>271</v>
+      <c r="B27" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="D27" t="s">
-        <v>324</v>
+        <v>387</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
+      <c r="B31" s="4"/>
       <c r="D31" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
+      <c r="B33" s="4"/>
       <c r="D33" t="s">
-        <v>325</v>
+        <v>388</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>274</v>
+      <c r="B34" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C34" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>273</v>
+      <c r="B35" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="D35" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>275</v>
+      <c r="B36" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C36" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>276</v>
+      <c r="B37" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C37" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>277</v>
+      <c r="B39" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="C39" t="s">
-        <v>330</v>
+        <v>399</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
+      <c r="B41" s="4"/>
       <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>278</v>
+      <c r="B42" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="C42" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>279</v>
+      <c r="B44" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>280</v>
+      <c r="B46" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="C46" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>281</v>
+      <c r="B48" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C48" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>282</v>
+      <c r="B53" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="D53" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>283</v>
+      <c r="B56" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>284</v>
+      <c r="B57" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C57" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>285</v>
+      <c r="B61" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>286</v>
+      <c r="B69" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
       <c r="D69" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>287</v>
+      <c r="B70" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>288</v>
+      <c r="B71" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C71" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="D71" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>289</v>
+      <c r="B72" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C72" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="D72" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>290</v>
+      <c r="B85" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="D85" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>291</v>
+      <c r="B86" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="C86" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>292</v>
+      <c r="B87" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="D87" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>293</v>
+      <c r="B93" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>294</v>
+      <c r="B103" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>295</v>
+      <c r="B109" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="D109" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>296</v>
+      <c r="B110" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>297</v>
+      <c r="B113" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="D113" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>298</v>
+      <c r="B114" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="D114" t="s">
-        <v>354</v>
+        <v>443</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>300</v>
+      <c r="B116" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="D116" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>299</v>
+      <c r="B117" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="D117" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>301</v>
+      <c r="B118" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="D118" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" t="s">
+        <v>450</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>337</v>
+      </c>
+      <c r="C186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" t="s">
+        <v>339</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>340</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>342</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" s="3"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="3"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D122" t="s">
-        <v>357</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="C228" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="B229" s="3"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+      <c r="B230" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="B231" s="3"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+      <c r="B232" s="3"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+      <c r="B233" s="3"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+      <c r="B234" s="3"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+      <c r="B235" s="3"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B236" s="3"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+      <c r="B237" s="3"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+      <c r="B238" s="3"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+      <c r="B239" s="3"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="B242" s="3"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="B243" s="3"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B244" s="3"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+      <c r="B245" s="3"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="B246" s="3"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+      <c r="B247" s="3"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="B248" s="3"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="B249" t="s">
+        <v>347</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+      <c r="B252" s="3"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+      <c r="B254" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
         <v>259</v>
+      </c>
+      <c r="B256" t="s">
+        <v>354</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3247,6 +6710,5 @@
     <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work fouth years\ฝึกงาน\MAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Getmac\getmac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1725,989 +1725,1218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="E6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="E9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>380</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="C18" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" t="s">
+        <v>381</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="C19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" t="s">
+        <v>384</v>
+      </c>
+      <c r="D23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="D31" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" t="s">
+        <v>315</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" t="s">
+        <v>395</v>
+      </c>
+      <c r="D36" t="s">
+        <v>315</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B39" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" t="s">
+        <v>400</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B42" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D42" t="s">
+        <v>315</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B44" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
+      <c r="D44" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B46" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C46" t="s">
+        <v>406</v>
+      </c>
+      <c r="D46" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B48" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
+      <c r="D48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" t="s">
+        <v>411</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C56" t="s">
+        <v>413</v>
+      </c>
+      <c r="D56" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B57" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" t="s">
+        <v>415</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B69" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C69" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" t="s">
+        <v>420</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B70" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" t="s">
+        <v>422</v>
+      </c>
+      <c r="D70" t="s">
+        <v>420</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="B71" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D71" t="s">
+        <v>420</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B72" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C72" t="s">
+        <v>426</v>
+      </c>
+      <c r="D72" t="s">
+        <v>420</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B85" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" t="s">
+        <v>428</v>
+      </c>
+      <c r="D85" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B86" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" t="s">
+        <v>431</v>
+      </c>
+      <c r="D86" t="s">
+        <v>429</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B87" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C87" t="s">
+        <v>433</v>
+      </c>
+      <c r="D87" t="s">
+        <v>429</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="B93" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C93" t="s">
+        <v>435</v>
+      </c>
+      <c r="D93" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="B103" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" t="s">
+        <v>437</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="B109" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D109" t="s">
+        <v>267</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="B110" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" t="s">
+        <v>440</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="E112"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="B113" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D113" t="s">
+        <v>267</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="B114" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D114" t="s">
+        <v>443</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="E115"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="B116" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D116" t="s">
+        <v>437</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="B117" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D117" t="s">
+        <v>446</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="B118" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D118" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="3"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="E119"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="3"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="E120"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="3"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="E121"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="B122" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" t="s">
+        <v>450</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -3989,6 +4218,9 @@
       <c r="D256" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3998,8 +4230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4031,69 +4263,25 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4111,18 +4299,7 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4134,18 +4311,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4157,18 +4323,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4180,940 +4335,592 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" t="s">
-        <v>315</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D15" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" t="s">
-        <v>380</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" t="s">
-        <v>379</v>
-      </c>
-      <c r="D18" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" t="s">
-        <v>379</v>
-      </c>
-      <c r="D19" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C23" t="s">
-        <v>384</v>
-      </c>
-      <c r="D23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" t="s">
-        <v>386</v>
-      </c>
-      <c r="D27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="D31" t="s">
-        <v>388</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="D33" t="s">
-        <v>388</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" t="s">
-        <v>391</v>
-      </c>
-      <c r="D34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C35" t="s">
-        <v>393</v>
-      </c>
-      <c r="D35" t="s">
-        <v>315</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" t="s">
-        <v>395</v>
-      </c>
-      <c r="D36" t="s">
-        <v>315</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C37" t="s">
-        <v>397</v>
-      </c>
-      <c r="D37" t="s">
-        <v>315</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" t="s">
-        <v>399</v>
-      </c>
-      <c r="D39" t="s">
-        <v>400</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" t="s">
-        <v>402</v>
-      </c>
-      <c r="D42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C44" t="s">
-        <v>404</v>
-      </c>
-      <c r="D44" t="s">
-        <v>315</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C46" t="s">
-        <v>406</v>
-      </c>
-      <c r="D46" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C48" t="s">
-        <v>408</v>
-      </c>
-      <c r="D48" t="s">
-        <v>315</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C53" t="s">
-        <v>410</v>
-      </c>
-      <c r="D53" t="s">
-        <v>411</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D56" t="s">
-        <v>315</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C57" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D61" t="s">
-        <v>315</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C69" t="s">
-        <v>419</v>
-      </c>
-      <c r="D69" t="s">
-        <v>420</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C70" t="s">
-        <v>422</v>
-      </c>
-      <c r="D70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C71" t="s">
-        <v>424</v>
-      </c>
-      <c r="D71" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C72" t="s">
-        <v>426</v>
-      </c>
-      <c r="D72" t="s">
-        <v>420</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C85" t="s">
-        <v>428</v>
-      </c>
-      <c r="D85" t="s">
-        <v>429</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C86" t="s">
-        <v>431</v>
-      </c>
-      <c r="D86" t="s">
-        <v>429</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C87" t="s">
-        <v>433</v>
-      </c>
-      <c r="D87" t="s">
-        <v>429</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C93" t="s">
-        <v>435</v>
-      </c>
-      <c r="D93" t="s">
-        <v>400</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D103" t="s">
-        <v>437</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D109" t="s">
-        <v>267</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D110" t="s">
-        <v>440</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -5123,29 +4930,13 @@
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D113" t="s">
-        <v>267</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D114" t="s">
-        <v>443</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -5157,43 +4948,19 @@
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D116" t="s">
-        <v>437</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D117" t="s">
-        <v>446</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D118" t="s">
-        <v>448</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -5217,15 +4984,7 @@
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D122" t="s">
-        <v>450</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">

--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Getmac\getmac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutch\Documents\GitHub\Getmac\getmac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
-    <sheet name="ปัจจุบัน (10-6-2559)" sheetId="2" r:id="rId2"/>
+    <sheet name="ปัจจุบัน (9-6-2559)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1383,12 +1383,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1431,7 +1431,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1715,16 +1715,16 @@
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1809,19 +1809,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1838,13 +1838,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1861,13 +1861,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1884,13 +1884,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1981,25 +1981,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2016,25 +2016,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2051,25 +2051,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2174,13 +2174,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2197,13 +2197,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2226,13 +2226,13 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2249,13 +2249,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2272,13 +2272,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2295,31 +2295,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2336,19 +2336,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2377,25 +2377,25 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2412,49 +2412,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2522,79 +2522,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2645,37 +2645,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2692,61 +2692,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2760,37 +2760,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -2818,19 +2818,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -2858,13 +2858,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2906,25 +2906,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3301,7 +3301,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3317,7 +3317,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3341,7 +3341,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -4234,15 +4234,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4259,734 +4259,734 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -5004,7 +5004,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -5030,7 +5030,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -5394,7 +5394,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -5434,7 +5434,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -5452,7 +5452,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -5519,7 +5519,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -5546,7 +5546,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -5582,7 +5582,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -5654,7 +5654,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -5672,7 +5672,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -5681,7 +5681,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -5773,7 +5773,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -5800,7 +5800,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -5836,7 +5836,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -5872,7 +5872,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -5953,7 +5953,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -6171,7 +6171,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -6215,7 +6215,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -6233,7 +6233,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -6260,7 +6260,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -6344,7 +6344,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -6353,7 +6353,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>

--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutch\Documents\GitHub\Getmac\getmac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Getmac\getmac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
     <sheet name="ปัจจุบัน (9-6-2559)" sheetId="2" r:id="rId2"/>
+    <sheet name="ปัจจุบัน (10-6-2559)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="547">
   <si>
     <t>IP Address</t>
   </si>
@@ -1378,17 +1379,305 @@
   </si>
   <si>
     <t>ฝ่ายบริการผู้อ่านห้องสมุดมนุษยศาสตร์ ชั้น 4</t>
+  </si>
+  <si>
+    <t>00:1E:4F:49:B3:F7</t>
+  </si>
+  <si>
+    <t>CIH5109</t>
+  </si>
+  <si>
+    <t>Dell Inc.</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:28:F2</t>
+  </si>
+  <si>
+    <t>Dell Inc</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:32:E2</t>
+  </si>
+  <si>
+    <t>ILR581540</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:FF</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CB:CF,30:CD:A7:14:60:BB</t>
+  </si>
+  <si>
+    <t>CDA5401,SEC30CDA71460BB</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard Company,Samsung Electronics ITS, Printer division</t>
+  </si>
+  <si>
+    <t>B0:83:FE:97:C6:D1</t>
+  </si>
+  <si>
+    <t>OPAC581511</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BC:AD</t>
+  </si>
+  <si>
+    <t>CAR_IIC006</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:E8</t>
+  </si>
+  <si>
+    <t>Micro-Star INT'L CO., LTD</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:28:34</t>
+  </si>
+  <si>
+    <t>ILR1255</t>
+  </si>
+  <si>
+    <t>F4:CE:46:48:B4:3A</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:B0:0E</t>
+  </si>
+  <si>
+    <t>CAR_CIR16</t>
+  </si>
+  <si>
+    <t>40:6C:8F:19:AC:41</t>
+  </si>
+  <si>
+    <t>Apple, Inc.</t>
+  </si>
+  <si>
+    <t>A4:BA:DB:FD:ED:82</t>
+  </si>
+  <si>
+    <t>DELLVOTRO62S</t>
+  </si>
+  <si>
+    <t>D8:CB:8A:7F:18:E5</t>
+  </si>
+  <si>
+    <t>DESKTOP-DDK4USE</t>
+  </si>
+  <si>
+    <t>A4:1F:72:79:43:0A</t>
+  </si>
+  <si>
+    <t>COM-01</t>
+  </si>
+  <si>
+    <t>B0:83:FE:6D:1E:FC</t>
+  </si>
+  <si>
+    <t>ILR581571</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:28</t>
+  </si>
+  <si>
+    <t>IIC581551</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BF:63</t>
+  </si>
+  <si>
+    <t>OPAC-0908</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:81</t>
+  </si>
+  <si>
+    <t>USER-PC</t>
+  </si>
+  <si>
+    <t>00:21:70:66:57:81</t>
+  </si>
+  <si>
+    <t>OPAC5504</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2A:77</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>18:A9:05:C4:B6:FD</t>
+  </si>
+  <si>
+    <t>40:6C:8F:16:07:DB</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:13:FF</t>
+  </si>
+  <si>
+    <t>ILR1623</t>
+  </si>
+  <si>
+    <t>00:1A:4B:3D:D2:A2</t>
+  </si>
+  <si>
+    <t>40:6C:8F:15:FB:5F,00:A0:98:9E:BD:1C</t>
+  </si>
+  <si>
+    <t>IMAC-15FB5F</t>
+  </si>
+  <si>
+    <t>Apple, Inc.,NetApp</t>
+  </si>
+  <si>
+    <t>6C:62:6D:9D:BC:98</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:62</t>
+  </si>
+  <si>
+    <t>CDA581535</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:A1:79</t>
+  </si>
+  <si>
+    <t>Wistron InfoComm(ZhongShan) Corporation</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:29:2F</t>
+  </si>
+  <si>
+    <t>00:25:90:73:27:69</t>
+  </si>
+  <si>
+    <t>JULAEP</t>
+  </si>
+  <si>
+    <t>Super Micro Computer, Inc.</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:2C:14</t>
+  </si>
+  <si>
+    <t>CMD581544</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:26:75</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>B0:83:FE:6D:1F:63</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:8E</t>
+  </si>
+  <si>
+    <t>IK-PC</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:41</t>
+  </si>
+  <si>
+    <t>IIC581550</t>
+  </si>
+  <si>
+    <t>00:26:55:41:BC:B2</t>
+  </si>
+  <si>
+    <t>IRM-CYBERZONE-5</t>
+  </si>
+  <si>
+    <t>38:C9:86:42:61:4C</t>
+  </si>
+  <si>
+    <t>APPLES-IMAC</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:35:1B</t>
+  </si>
+  <si>
+    <t>CDL581554</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:9E:E5</t>
+  </si>
+  <si>
+    <t>SO_LENOVO5705</t>
+  </si>
+  <si>
+    <t>84:8F:69:C8:8D:46</t>
+  </si>
+  <si>
+    <t>00:21:97:C3:7C:F1</t>
+  </si>
+  <si>
+    <t>ITA01040</t>
+  </si>
+  <si>
+    <t>ELITEGROUP COMPUTER SYSTEM</t>
+  </si>
+  <si>
+    <t>3C:07:54:7D:FC:A7</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:36:07</t>
+  </si>
+  <si>
+    <t>CDL581557</t>
+  </si>
+  <si>
+    <t>C8:2A:14:0D:95:E5</t>
+  </si>
+  <si>
+    <t>ARTMAC3</t>
+  </si>
+  <si>
+    <t>Apple, Inc</t>
+  </si>
+  <si>
+    <t>00:1D:50:10:2E:08</t>
+  </si>
+  <si>
+    <t>SPINETIX SA</t>
+  </si>
+  <si>
+    <t>A4:1F:72:79:4B:1A</t>
+  </si>
+  <si>
+    <t>COM-03</t>
+  </si>
+  <si>
+    <t>F8:0F:41:C2:A1:62</t>
+  </si>
+  <si>
+    <t>SO_LENOVO5704</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:33:7F</t>
+  </si>
+  <si>
+    <t>CMD581543</t>
+  </si>
+  <si>
+    <t>00:26:55:42:2E:74</t>
+  </si>
+  <si>
+    <t>OPAC_0912</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1431,7 +1720,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1711,20 +2000,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1775,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1809,19 +2098,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1838,13 +2127,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1861,13 +2150,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1884,13 +2173,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1907,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +2228,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1953,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1967,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1981,25 +2270,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2016,25 +2305,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2051,25 +2340,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2080,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2095,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2106,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2123,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2140,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2157,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2174,13 +2463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2197,13 +2486,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2226,13 +2515,13 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2249,13 +2538,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2272,13 +2561,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2295,31 +2584,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2336,19 +2625,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2365,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2377,25 +2666,25 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2412,49 +2701,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2471,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2488,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2505,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2522,79 +2811,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2611,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2628,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2645,37 +2934,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2692,61 +2981,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2760,37 +3049,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -2804,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -2818,19 +3107,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2844,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -2858,13 +3147,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -2878,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -2892,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2906,25 +3195,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -2938,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -2946,7 +3235,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -2954,7 +3243,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -2971,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -2979,7 +3268,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -2996,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3004,7 +3293,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3021,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3029,7 +3318,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3037,7 +3326,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3054,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3062,7 +3351,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -3070,7 +3359,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3087,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3095,7 +3384,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3112,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3120,7 +3409,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3137,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3154,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3171,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3188,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3196,7 +3485,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3213,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3221,7 +3510,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -3229,7 +3518,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3237,7 +3526,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3245,7 +3534,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3253,7 +3542,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3261,7 +3550,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3269,7 +3558,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3277,7 +3566,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -3285,7 +3574,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3293,7 +3582,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3301,7 +3590,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3309,7 +3598,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3317,7 +3606,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3325,7 +3614,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3333,7 +3622,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3341,7 +3630,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3358,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3366,7 +3655,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -3383,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -3400,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -3408,7 +3697,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -3416,7 +3705,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3424,7 +3713,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -3432,7 +3721,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -3440,7 +3729,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -3448,7 +3737,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -3456,7 +3745,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -3464,7 +3753,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -3472,7 +3761,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -3480,7 +3769,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -3488,7 +3777,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -3496,7 +3785,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -3504,7 +3793,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3801,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -3520,7 +3809,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -3528,7 +3817,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -3536,7 +3825,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -3544,7 +3833,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -3552,7 +3841,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -3560,7 +3849,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -3568,7 +3857,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -3576,7 +3865,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -3584,7 +3873,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -3592,7 +3881,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -3600,7 +3889,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -3608,7 +3897,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -3616,7 +3905,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -3624,7 +3913,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -3632,7 +3921,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -3640,7 +3929,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -3648,7 +3937,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -3656,7 +3945,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -3664,7 +3953,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -3672,7 +3961,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -3680,7 +3969,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -3688,7 +3977,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -3696,7 +3985,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -3704,7 +3993,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -3712,7 +4001,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -3720,7 +4009,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -3728,7 +4017,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -3736,7 +4025,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -3744,7 +4033,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -3752,7 +4041,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -3760,7 +4049,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -3768,7 +4057,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -3776,7 +4065,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -3784,7 +4073,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -3792,7 +4081,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -3800,7 +4089,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -3808,7 +4097,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -3816,7 +4105,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -3824,7 +4113,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -3832,7 +4121,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -3840,7 +4129,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -3857,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -3874,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -3882,7 +4171,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -3890,7 +4179,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -3907,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -3924,7 +4213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -3941,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -3958,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -3975,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -3983,7 +4272,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -4000,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -4008,7 +4297,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -4016,7 +4305,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -4024,7 +4313,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -4032,7 +4321,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -4040,7 +4329,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -4048,7 +4337,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -4056,7 +4345,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -4064,7 +4353,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -4072,7 +4361,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -4080,7 +4369,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -4088,7 +4377,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -4096,7 +4385,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -4104,7 +4393,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -4112,7 +4401,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -4120,7 +4409,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -4128,7 +4417,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -4136,7 +4425,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -4144,7 +4433,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -4152,7 +4441,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -4160,7 +4449,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -4168,7 +4457,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -4176,7 +4465,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -4184,7 +4473,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -4201,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -4209,7 +4498,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -4230,19 +4519,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4259,734 +4548,734 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -4995,7 +5284,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -5004,7 +5293,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -5021,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -5030,7 +5319,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -5047,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5056,7 +5345,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5073,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -5082,7 +5371,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -5091,7 +5380,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -5108,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -5117,7 +5406,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -5126,7 +5415,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -5143,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -5152,7 +5441,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -5169,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -5184,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -5201,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -5218,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -5235,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -5252,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -5269,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -5286,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -5299,7 +5588,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -5314,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -5323,7 +5612,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -5332,7 +5621,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -5341,7 +5630,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -5350,7 +5639,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -5359,7 +5648,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -5368,7 +5657,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -5385,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -5394,7 +5683,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -5403,7 +5692,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -5412,7 +5701,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -5425,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -5434,7 +5723,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -5443,7 +5732,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -5452,7 +5741,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -5467,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -5480,7 +5769,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -5495,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -5510,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -5519,7 +5808,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -5528,7 +5817,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -5537,7 +5826,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -5546,7 +5835,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -5555,7 +5844,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -5564,7 +5853,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -5573,7 +5862,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -5582,7 +5871,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -5591,7 +5880,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -5600,7 +5889,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -5609,7 +5898,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -5618,7 +5907,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -5627,7 +5916,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -5636,7 +5925,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -5645,7 +5934,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -5654,7 +5943,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -5663,7 +5952,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -5672,7 +5961,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -5681,7 +5970,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -5690,7 +5979,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -5699,7 +5988,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -5716,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -5725,7 +6014,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -5734,7 +6023,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -5749,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -5764,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -5773,7 +6062,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -5782,7 +6071,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -5791,7 +6080,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -5800,7 +6089,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -5809,7 +6098,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -5818,7 +6107,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -5827,7 +6116,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -5836,7 +6125,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -5845,7 +6134,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -5854,7 +6143,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -5863,7 +6152,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -5872,7 +6161,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -5881,7 +6170,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -5890,7 +6179,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -5899,7 +6188,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -5908,7 +6197,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -5917,7 +6206,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -5926,7 +6215,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -5935,7 +6224,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -5944,7 +6233,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -5953,7 +6242,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -5962,7 +6251,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -5971,7 +6260,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -5980,7 +6269,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -5989,7 +6278,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -5998,7 +6287,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -6007,7 +6296,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -6016,7 +6305,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -6025,7 +6314,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -6042,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -6059,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -6068,7 +6357,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -6077,7 +6366,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -6094,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -6111,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -6128,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -6145,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -6162,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -6171,7 +6460,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -6188,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -6197,7 +6486,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -6206,7 +6495,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -6215,7 +6504,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -6224,7 +6513,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -6233,7 +6522,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -6242,7 +6531,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -6251,7 +6540,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -6260,7 +6549,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -6269,7 +6558,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -6284,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -6299,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -6308,7 +6597,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -6317,7 +6606,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -6326,7 +6615,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -6335,7 +6624,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -6344,7 +6633,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -6353,7 +6642,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -6362,7 +6651,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -6377,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -6392,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -6407,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -6416,7 +6705,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -6429,7 +6718,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -6442,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -6451,7 +6740,2402 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256" t="s">
+        <v>354</v>
+      </c>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E256"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection sqref="A1:E256"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C122" t="s">
+        <v>452</v>
+      </c>
+      <c r="D122" t="s">
+        <v>453</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>459</v>
+      </c>
+      <c r="C134" t="s">
+        <v>460</v>
+      </c>
+      <c r="D134" t="s">
+        <v>461</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" t="s">
+        <v>463</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>464</v>
+      </c>
+      <c r="C137" t="s">
+        <v>465</v>
+      </c>
+      <c r="D137" t="s">
+        <v>323</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>466</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" t="s">
+        <v>467</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>468</v>
+      </c>
+      <c r="C142" t="s">
+        <v>469</v>
+      </c>
+      <c r="D142" t="s">
+        <v>455</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>470</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>471</v>
+      </c>
+      <c r="C144" t="s">
+        <v>472</v>
+      </c>
+      <c r="D144" t="s">
+        <v>467</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" t="s">
+        <v>474</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>475</v>
+      </c>
+      <c r="C147" t="s">
+        <v>476</v>
+      </c>
+      <c r="D147" t="s">
+        <v>453</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" t="s">
+        <v>480</v>
+      </c>
+      <c r="D152" t="s">
+        <v>453</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>481</v>
+      </c>
+      <c r="C159" t="s">
+        <v>482</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>483</v>
+      </c>
+      <c r="C172" t="s">
+        <v>484</v>
+      </c>
+      <c r="D172" s="1"/>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>485</v>
+      </c>
+      <c r="C174" t="s">
+        <v>486</v>
+      </c>
+      <c r="D174" t="s">
+        <v>323</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>487</v>
+      </c>
+      <c r="C175" t="s">
+        <v>488</v>
+      </c>
+      <c r="D175" t="s">
+        <v>467</v>
+      </c>
+      <c r="E175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>489</v>
+      </c>
+      <c r="C176" t="s">
+        <v>490</v>
+      </c>
+      <c r="D176" t="s">
+        <v>455</v>
+      </c>
+      <c r="E176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>491</v>
+      </c>
+      <c r="C178" t="s">
+        <v>492</v>
+      </c>
+      <c r="D178" t="s">
+        <v>455</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>493</v>
+      </c>
+      <c r="D179" t="s">
+        <v>323</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>494</v>
+      </c>
+      <c r="D182" t="s">
+        <v>474</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>495</v>
+      </c>
+      <c r="C183" t="s">
+        <v>496</v>
+      </c>
+      <c r="D183" s="1"/>
+      <c r="E183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>497</v>
+      </c>
+      <c r="D186" t="s">
+        <v>323</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>498</v>
+      </c>
+      <c r="C190" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" t="s">
+        <v>500</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>501</v>
+      </c>
+      <c r="D191" t="s">
+        <v>467</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>502</v>
+      </c>
+      <c r="C192" t="s">
+        <v>503</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>504</v>
+      </c>
+      <c r="D193" t="s">
+        <v>505</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>506</v>
+      </c>
+      <c r="D197" t="s">
+        <v>455</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>507</v>
+      </c>
+      <c r="C198" t="s">
+        <v>508</v>
+      </c>
+      <c r="D198" t="s">
+        <v>509</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>510</v>
+      </c>
+      <c r="C200" t="s">
+        <v>511</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>512</v>
+      </c>
+      <c r="C202" t="s">
+        <v>513</v>
+      </c>
+      <c r="D202" t="s">
+        <v>455</v>
+      </c>
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>514</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" s="3"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>515</v>
+      </c>
+      <c r="C207" t="s">
+        <v>516</v>
+      </c>
+      <c r="D207" t="s">
+        <v>467</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" s="3"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" s="3"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="3"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>517</v>
+      </c>
+      <c r="C212" t="s">
+        <v>518</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" s="3"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="3"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>519</v>
+      </c>
+      <c r="C216" t="s">
+        <v>520</v>
+      </c>
+      <c r="D216" t="s">
+        <v>323</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>521</v>
+      </c>
+      <c r="C219" t="s">
+        <v>522</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>523</v>
+      </c>
+      <c r="C220" t="s">
+        <v>524</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>525</v>
+      </c>
+      <c r="C221" t="s">
+        <v>526</v>
+      </c>
+      <c r="D221" t="s">
+        <v>505</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>527</v>
+      </c>
+      <c r="C222" t="s">
+        <v>453</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>528</v>
+      </c>
+      <c r="C223" t="s">
+        <v>529</v>
+      </c>
+      <c r="D223" t="s">
+        <v>530</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>531</v>
+      </c>
+      <c r="D226" t="s">
+        <v>474</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>532</v>
+      </c>
+      <c r="C229" t="s">
+        <v>533</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>534</v>
+      </c>
+      <c r="C230" t="s">
+        <v>535</v>
+      </c>
+      <c r="D230" t="s">
+        <v>536</v>
+      </c>
+      <c r="E230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>537</v>
+      </c>
+      <c r="D231" t="s">
+        <v>538</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>539</v>
+      </c>
+      <c r="C233" t="s">
+        <v>540</v>
+      </c>
+      <c r="D233" t="s">
+        <v>453</v>
+      </c>
+      <c r="E233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>541</v>
+      </c>
+      <c r="C234" t="s">
+        <v>542</v>
+      </c>
+      <c r="D234" t="s">
+        <v>505</v>
+      </c>
+      <c r="E234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>543</v>
+      </c>
+      <c r="C235" t="s">
+        <v>544</v>
+      </c>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s">
+        <v>545</v>
+      </c>
+      <c r="C236" t="s">
+        <v>546</v>
+      </c>
+      <c r="D236" t="s">
+        <v>323</v>
+      </c>
+      <c r="E236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="D240" s="1"/>
+      <c r="E240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="D241" s="1"/>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s">
+        <v>347</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>

--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Getmac\getmac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutch\Documents\GitHub\Getmac\getmac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="652">
   <si>
     <t>IP Address</t>
   </si>
@@ -1667,17 +1667,332 @@
   </si>
   <si>
     <t>OPAC_0912</t>
+  </si>
+  <si>
+    <t>A2:F5:FD:65:80:71, 86:C5:30:5C:3A:F2</t>
+  </si>
+  <si>
+    <t>78:2B:CB:0A:3F:5C</t>
+  </si>
+  <si>
+    <t>OMEGA</t>
+  </si>
+  <si>
+    <t>DA:B3:27:6E:A6:58</t>
+  </si>
+  <si>
+    <t>00:25:64:FD:28:EB</t>
+  </si>
+  <si>
+    <t>00:25:64:FD:3E:CF</t>
+  </si>
+  <si>
+    <t>D4:BE:D9:B1:99:55</t>
+  </si>
+  <si>
+    <t>ADM5402</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:C8:3B</t>
+  </si>
+  <si>
+    <t>ILR5406</t>
+  </si>
+  <si>
+    <t>52:EF:E6:B2:3F:56</t>
+  </si>
+  <si>
+    <t>78:2B:CB:1E:74:A2</t>
+  </si>
+  <si>
+    <t>DD18L82S</t>
+  </si>
+  <si>
+    <t>1A:20:7C:00:66:D0</t>
+  </si>
+  <si>
+    <t>CIR001</t>
+  </si>
+  <si>
+    <t>36:31:61:31:35:32</t>
+  </si>
+  <si>
+    <t>00:0C:76:EA:C6:D7</t>
+  </si>
+  <si>
+    <t>CAR-VSCAN</t>
+  </si>
+  <si>
+    <t>MICRO-STAR INTERNATIONAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>96:09:CF:E1:1F:C4</t>
+  </si>
+  <si>
+    <t>INFOMASERV</t>
+  </si>
+  <si>
+    <t>00:0C:76:EA:C7:C7</t>
+  </si>
+  <si>
+    <t>18:03:73:4C:70:40</t>
+  </si>
+  <si>
+    <t>IRM5504</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:08</t>
+  </si>
+  <si>
+    <t>CAR_CDA5504</t>
+  </si>
+  <si>
+    <t>90:2B:34:75:A4:5B</t>
+  </si>
+  <si>
+    <t>CUBR-PC</t>
+  </si>
+  <si>
+    <t>GIGA-BYTE TECHNOLOGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>50:E5:49:14:FC:41</t>
+  </si>
+  <si>
+    <t>CUSC</t>
+  </si>
+  <si>
+    <t>00:1D:92:22:52:FC</t>
+  </si>
+  <si>
+    <t>MICRO-STAR INT'L CO.,LTD.</t>
+  </si>
+  <si>
+    <t>00:23:24:24:E1:82</t>
+  </si>
+  <si>
+    <t>G-PRO COMPUTER</t>
+  </si>
+  <si>
+    <t>00:1D:92:25:16:54</t>
+  </si>
+  <si>
+    <t>00:26:55:43:E0:F3</t>
+  </si>
+  <si>
+    <t>RSS0729</t>
+  </si>
+  <si>
+    <t>78:2B:CB:26:8B:EB</t>
+  </si>
+  <si>
+    <t>OPAC5502</t>
+  </si>
+  <si>
+    <t>F0:1F:AF:EA:22:03</t>
+  </si>
+  <si>
+    <t>Dell Inc PCBA Test</t>
+  </si>
+  <si>
+    <t>F0:1F:AF:EA:20:EB</t>
+  </si>
+  <si>
+    <t>CMD5218</t>
+  </si>
+  <si>
+    <t>EC:B1:D7:84:46:68</t>
+  </si>
+  <si>
+    <t>90:B1:1C:2E:EA:07</t>
+  </si>
+  <si>
+    <t>00:1D:92:22:52:80</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:2A:AB</t>
+  </si>
+  <si>
+    <t>IRM591622</t>
+  </si>
+  <si>
+    <t>36:33:65:35:63:36</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:5E</t>
+  </si>
+  <si>
+    <t>00:26:55:42:30:05</t>
+  </si>
+  <si>
+    <t>CDL5249</t>
+  </si>
+  <si>
+    <t>92:02:94:B4:9A:75</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:21:1F</t>
+  </si>
+  <si>
+    <t>CDA1617</t>
+  </si>
+  <si>
+    <t>40:6C:8F:1A:07:ED</t>
+  </si>
+  <si>
+    <t>KENGS-IMAC</t>
+  </si>
+  <si>
+    <t>00:02:65:14:10:98</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:16</t>
+  </si>
+  <si>
+    <t>00:11:0A:C3:27:7D</t>
+  </si>
+  <si>
+    <t>NPIC3277D</t>
+  </si>
+  <si>
+    <t>00:00:AA:E2:ED:1D</t>
+  </si>
+  <si>
+    <t>CIR19</t>
+  </si>
+  <si>
+    <t>NPIC2D595</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:AA</t>
+  </si>
+  <si>
+    <t>ILR581541</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:40</t>
+  </si>
+  <si>
+    <t>CIR55247</t>
+  </si>
+  <si>
+    <t>00:1E:4F:49:B9:59</t>
+  </si>
+  <si>
+    <t>AMD14-51</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:3F:C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPINETIX SA </t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:4D</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:45:F3</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:25:97</t>
+  </si>
+  <si>
+    <t>CAR_CDA5506</t>
+  </si>
+  <si>
+    <t>00:21:70:66:39:8F</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CD:46</t>
+  </si>
+  <si>
+    <t>TIC5410</t>
+  </si>
+  <si>
+    <t>00:21:70:66:59:5C</t>
+  </si>
+  <si>
+    <t>00:21:70:66:30:C8</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:80</t>
+  </si>
+  <si>
+    <t>CDL581553</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CD:4A</t>
+  </si>
+  <si>
+    <t>WORKGROUP</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:3A:6A</t>
+  </si>
+  <si>
+    <t>CDL581555</t>
+  </si>
+  <si>
+    <t>00:21:70:66:59:79</t>
+  </si>
+  <si>
+    <t>00:26:B9:2B:D3:B9</t>
+  </si>
+  <si>
+    <t>VDO2</t>
+  </si>
+  <si>
+    <t>36:66:31:37:36:66</t>
+  </si>
+  <si>
+    <t>36:36:66:39:35:62</t>
+  </si>
+  <si>
+    <t>62:35:36:39:31:61</t>
+  </si>
+  <si>
+    <t>88:51:FB:3F:28:FA</t>
+  </si>
+  <si>
+    <t>Hewlett Packard</t>
+  </si>
+  <si>
+    <t>62:37:61:62:32:64</t>
+  </si>
+  <si>
+    <t>00:1A:4B:31:78:E0</t>
+  </si>
+  <si>
+    <t>NPI3178E0</t>
+  </si>
+  <si>
+    <t>08:00:37:BC:5D:64</t>
+  </si>
+  <si>
+    <t>FXBC5D64</t>
+  </si>
+  <si>
+    <t>FUJI-XEROX CO. LTD.</t>
+  </si>
+  <si>
+    <t>08:00:37:92:9A:52</t>
+  </si>
+  <si>
+    <t>FX929A52</t>
+  </si>
+  <si>
+    <t>NPI84CC30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1702,7 +2017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1718,9 +2033,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2004,16 +2320,16 @@
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2047,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2098,19 +2414,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2127,13 +2443,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2150,13 +2466,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2173,13 +2489,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2544,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2242,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2256,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2270,25 +2586,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2305,25 +2621,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2340,25 +2656,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2369,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2384,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2395,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2412,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2429,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2446,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2463,13 +2779,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2486,13 +2802,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2500,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2515,13 +2831,13 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2538,13 +2854,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2561,13 +2877,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2584,31 +2900,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2625,19 +2941,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2654,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2666,25 +2982,25 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2701,49 +3017,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2760,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2794,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2811,79 +3127,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2900,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2917,7 +3233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2934,37 +3250,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2981,61 +3297,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3049,37 +3365,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3093,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3107,19 +3423,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3133,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3147,13 +3463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3167,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3181,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -3195,25 +3511,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3227,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -3235,7 +3551,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -3243,7 +3559,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3260,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3268,7 +3584,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -3285,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3293,7 +3609,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3310,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3318,7 +3634,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3326,7 +3642,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3343,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3351,7 +3667,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -3359,7 +3675,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3376,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3384,7 +3700,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3401,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3409,7 +3725,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3426,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3443,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3460,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3477,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3485,7 +3801,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3502,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3510,7 +3826,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -3518,7 +3834,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3526,7 +3842,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3534,7 +3850,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3542,7 +3858,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3550,7 +3866,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3558,7 +3874,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3566,7 +3882,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -3574,7 +3890,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3582,7 +3898,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3590,7 +3906,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3598,7 +3914,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3606,7 +3922,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3614,7 +3930,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3622,7 +3938,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3630,7 +3946,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3647,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3655,7 +3971,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -3672,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -3689,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -3697,7 +4013,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -3705,7 +4021,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -3713,7 +4029,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -3721,7 +4037,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -3729,7 +4045,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -3737,7 +4053,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -3745,7 +4061,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -3753,7 +4069,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -3761,7 +4077,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -3769,7 +4085,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -3777,7 +4093,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -3785,7 +4101,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -3793,7 +4109,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -3801,7 +4117,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -3809,7 +4125,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -3817,7 +4133,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -3825,7 +4141,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -3833,7 +4149,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -3841,7 +4157,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -3849,7 +4165,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -3857,7 +4173,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -3865,7 +4181,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -3873,7 +4189,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -3881,7 +4197,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -3889,7 +4205,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -3897,7 +4213,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -3905,7 +4221,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -3913,7 +4229,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -3921,7 +4237,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -3929,7 +4245,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -3937,7 +4253,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -3945,7 +4261,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -3953,7 +4269,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -3961,7 +4277,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -3969,7 +4285,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -3977,7 +4293,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -3985,7 +4301,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -3993,7 +4309,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -4001,7 +4317,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -4009,7 +4325,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -4017,7 +4333,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -4025,7 +4341,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -4033,7 +4349,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -4041,7 +4357,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -4049,7 +4365,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -4057,7 +4373,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -4065,7 +4381,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -4073,7 +4389,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -4081,7 +4397,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -4089,7 +4405,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -4097,7 +4413,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -4105,7 +4421,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -4113,7 +4429,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -4121,7 +4437,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -4129,7 +4445,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -4146,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -4163,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -4171,7 +4487,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -4179,7 +4495,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -4196,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -4213,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -4230,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -4247,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -4264,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -4272,7 +4588,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -4289,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -4297,7 +4613,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -4305,7 +4621,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -4313,7 +4629,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -4321,7 +4637,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -4329,7 +4645,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -4337,7 +4653,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -4345,7 +4661,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -4353,7 +4669,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -4361,7 +4677,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -4369,7 +4685,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -4377,7 +4693,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -4385,7 +4701,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -4393,7 +4709,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -4401,7 +4717,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -4409,7 +4725,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -4417,7 +4733,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -4425,7 +4741,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -4433,7 +4749,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -4441,7 +4757,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -4449,7 +4765,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -4457,7 +4773,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -4465,7 +4781,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -4473,7 +4789,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -4490,7 +4806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -4498,7 +4814,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -4523,15 +4839,15 @@
       <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4548,734 +4864,734 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -5284,7 +5600,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -5293,7 +5609,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -5310,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -5319,7 +5635,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -5336,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5345,7 +5661,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5362,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -5371,7 +5687,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -5380,7 +5696,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -5397,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -5406,7 +5722,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -5415,7 +5731,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -5432,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -5441,7 +5757,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -5458,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -5473,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -5490,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -5507,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -5524,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -5541,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -5558,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -5575,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -5588,7 +5904,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -5603,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -5612,7 +5928,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -5621,7 +5937,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -5630,7 +5946,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -5639,7 +5955,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -5648,7 +5964,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -5657,7 +5973,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -5674,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -5683,7 +5999,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -5692,7 +6008,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -5701,7 +6017,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -5714,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -5723,7 +6039,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -5732,7 +6048,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -5741,7 +6057,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -5756,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -5769,7 +6085,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -5784,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -5799,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -5808,7 +6124,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -5817,7 +6133,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -5826,7 +6142,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -5835,7 +6151,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -5844,7 +6160,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -5853,7 +6169,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -5862,7 +6178,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -5871,7 +6187,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -5880,7 +6196,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -5889,7 +6205,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -5898,7 +6214,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -5907,7 +6223,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -5916,7 +6232,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -5925,7 +6241,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -5934,7 +6250,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -5943,7 +6259,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -5952,7 +6268,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -5961,7 +6277,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -5970,7 +6286,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -5979,7 +6295,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -5988,7 +6304,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -6005,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -6014,7 +6330,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -6023,7 +6339,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -6038,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -6053,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -6062,7 +6378,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -6071,7 +6387,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -6080,7 +6396,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -6089,7 +6405,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -6098,7 +6414,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -6107,7 +6423,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -6116,7 +6432,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -6125,7 +6441,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -6134,7 +6450,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -6143,7 +6459,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -6152,7 +6468,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -6161,7 +6477,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -6170,7 +6486,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -6179,7 +6495,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -6188,7 +6504,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -6197,7 +6513,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -6206,7 +6522,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -6215,7 +6531,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -6224,7 +6540,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -6233,7 +6549,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -6242,7 +6558,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -6251,7 +6567,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -6260,7 +6576,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -6269,7 +6585,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -6278,7 +6594,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -6287,7 +6603,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -6296,7 +6612,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -6305,7 +6621,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -6314,7 +6630,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -6331,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -6348,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -6357,7 +6673,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -6366,7 +6682,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -6383,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -6400,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -6417,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -6434,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -6451,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -6460,7 +6776,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -6477,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -6486,7 +6802,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -6495,7 +6811,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -6504,7 +6820,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -6513,7 +6829,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -6522,7 +6838,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -6531,7 +6847,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -6540,7 +6856,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -6549,7 +6865,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -6558,7 +6874,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -6573,7 +6889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -6588,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -6597,7 +6913,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -6606,7 +6922,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -6615,7 +6931,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -6624,7 +6940,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -6633,7 +6949,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -6642,7 +6958,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -6651,7 +6967,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -6666,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -6681,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -6696,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -6705,7 +7021,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -6718,7 +7034,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -6731,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -6740,7 +7056,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -6765,18 +7081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection sqref="A1:E256"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6793,728 +7110,1123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C11" t="s">
+        <v>554</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>563</v>
+      </c>
+      <c r="C20" t="s">
+        <v>564</v>
+      </c>
+      <c r="D20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>568</v>
+      </c>
+      <c r="D24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>571</v>
+      </c>
+      <c r="C26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>573</v>
+      </c>
+      <c r="C29" t="s">
+        <v>574</v>
+      </c>
+      <c r="D29" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>576</v>
+      </c>
+      <c r="C30" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>578</v>
+      </c>
+      <c r="D31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>582</v>
+      </c>
+      <c r="D33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>585</v>
+      </c>
+      <c r="C38" t="s">
+        <v>586</v>
+      </c>
+      <c r="D38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D39" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" t="s">
+        <v>590</v>
+      </c>
+      <c r="D40" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>592</v>
+      </c>
+      <c r="D42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>593</v>
+      </c>
+      <c r="D43" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="4"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>594</v>
+      </c>
+      <c r="C45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>597</v>
+      </c>
+      <c r="D48" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>598</v>
+      </c>
+      <c r="C51" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>601</v>
+      </c>
+      <c r="C57" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="4"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>603</v>
+      </c>
+      <c r="C61" t="s">
+        <v>604</v>
+      </c>
+      <c r="D61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>607</v>
+      </c>
+      <c r="C68" t="s">
+        <v>608</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>609</v>
+      </c>
+      <c r="C69" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>611</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>612</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>614</v>
+      </c>
+      <c r="C73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>616</v>
+      </c>
+      <c r="C74" t="s">
+        <v>617</v>
+      </c>
+      <c r="D74" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>618</v>
+      </c>
+      <c r="D76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>620</v>
+      </c>
+      <c r="D77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>621</v>
+      </c>
+      <c r="D78" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>622</v>
+      </c>
+      <c r="C79" t="s">
+        <v>623</v>
+      </c>
+      <c r="D79" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>624</v>
+      </c>
+      <c r="D80" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>625</v>
+      </c>
+      <c r="C81" t="s">
+        <v>626</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>627</v>
+      </c>
+      <c r="D82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>628</v>
+      </c>
+      <c r="D83" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>629</v>
+      </c>
+      <c r="C84" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="4"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>631</v>
+      </c>
+      <c r="C87" t="s">
+        <v>632</v>
+      </c>
+      <c r="D87" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>633</v>
+      </c>
+      <c r="C90" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>635</v>
+      </c>
+      <c r="D93" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>636</v>
+      </c>
+      <c r="C96" t="s">
+        <v>637</v>
+      </c>
+      <c r="D96" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>641</v>
+      </c>
+      <c r="C107" t="s">
+        <v>632</v>
+      </c>
+      <c r="D107" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>644</v>
+      </c>
+      <c r="C112" t="s">
+        <v>645</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>646</v>
+      </c>
+      <c r="C114" t="s">
+        <v>647</v>
+      </c>
+      <c r="D114" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>649</v>
+      </c>
+      <c r="C115" t="s">
+        <v>650</v>
+      </c>
+      <c r="D115" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>651</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -7531,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -7540,7 +8252,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -7549,7 +8261,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -7560,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -7569,7 +8281,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -7584,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -7593,7 +8305,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -7602,7 +8314,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -7611,7 +8323,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -7626,7 +8338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -7641,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -7650,7 +8362,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -7667,7 +8379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -7684,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -7699,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -7716,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -7725,7 +8437,7 @@
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -7740,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -7749,7 +8461,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -7758,7 +8470,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -7775,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -7792,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -7809,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -7824,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -7839,7 +8551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -7856,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -7865,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -7874,7 +8586,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -7887,7 +8599,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -7896,7 +8608,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -7913,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -7930,7 +8642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -7939,7 +8651,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -7948,7 +8660,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -7957,7 +8669,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -7965,7 +8677,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -7974,7 +8686,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -7989,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -7998,7 +8710,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -8013,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -8026,7 +8738,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -8041,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -8056,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -8065,7 +8777,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -8074,7 +8786,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -8083,7 +8795,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -8092,7 +8804,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -8101,7 +8813,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -8110,7 +8822,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -8119,7 +8831,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -8134,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -8143,7 +8855,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -8160,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -8177,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -8194,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -8203,7 +8915,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -8220,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -8234,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -8243,7 +8955,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -8252,7 +8964,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -8266,7 +8978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -8281,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -8290,7 +9002,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -8299,7 +9011,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -8313,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -8322,7 +9034,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -8331,14 +9043,14 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C189" s="1"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -8355,7 +9067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -8369,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -8384,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -8398,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -8407,7 +9119,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -8416,7 +9128,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -8425,7 +9137,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -8439,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -8456,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -8465,7 +9177,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -8480,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -8489,7 +9201,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -8506,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -8519,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -8528,7 +9240,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -8537,7 +9249,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -8546,7 +9258,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -8563,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -8572,7 +9284,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -8581,7 +9293,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -8590,7 +9302,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -8599,7 +9311,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -8614,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -8623,7 +9335,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -8632,7 +9344,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -8641,7 +9353,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -8658,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -8667,7 +9379,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -8676,7 +9388,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -8691,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -8706,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -8723,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -8738,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -8755,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -8764,7 +9476,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -8773,7 +9485,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -8787,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -8796,7 +9508,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -8805,7 +9517,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -8820,7 +9532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -8837,7 +9549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -8851,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -8860,7 +9572,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -8877,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -8894,7 +9606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -8909,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -8926,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -8935,7 +9647,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -8944,7 +9656,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -8953,7 +9665,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -8968,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -8983,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -8992,7 +9704,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -9001,7 +9713,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -9010,7 +9722,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -9019,7 +9731,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -9028,7 +9740,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -9037,7 +9749,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -9046,7 +9758,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -9061,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -9076,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -9091,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -9100,7 +9812,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -9113,7 +9825,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -9126,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -9135,7 +9847,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -9149,9 +9861,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B32:C32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutch\Documents\GitHub\Getmac\getmac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Getmac\getmac\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="618">
   <si>
     <t>IP Address</t>
   </si>
@@ -1381,12 +1381,6 @@
     <t>ฝ่ายบริการผู้อ่านห้องสมุดมนุษยศาสตร์ ชั้น 4</t>
   </si>
   <si>
-    <t>00:1E:4F:49:B3:F7</t>
-  </si>
-  <si>
-    <t>CIH5109</t>
-  </si>
-  <si>
     <t>Dell Inc.</t>
   </si>
   <si>
@@ -1447,9 +1441,6 @@
     <t>CAR_CIR16</t>
   </si>
   <si>
-    <t>40:6C:8F:19:AC:41</t>
-  </si>
-  <si>
     <t>Apple, Inc.</t>
   </si>
   <si>
@@ -1468,9 +1459,6 @@
     <t>A4:1F:72:79:43:0A</t>
   </si>
   <si>
-    <t>COM-01</t>
-  </si>
-  <si>
     <t>B0:83:FE:6D:1E:FC</t>
   </si>
   <si>
@@ -1531,15 +1519,6 @@
     <t>Apple, Inc.,NetApp</t>
   </si>
   <si>
-    <t>6C:62:6D:9D:BC:98</t>
-  </si>
-  <si>
-    <t>98:90:96:BC:35:62</t>
-  </si>
-  <si>
-    <t>CDA581535</t>
-  </si>
-  <si>
     <t>F8:0F:41:C2:A1:79</t>
   </si>
   <si>
@@ -1567,18 +1546,9 @@
     <t>18:03:73:4D:26:75</t>
   </si>
   <si>
-    <t>RSS</t>
-  </si>
-  <si>
-    <t>B0:83:FE:6D:1F:63</t>
-  </si>
-  <si>
     <t>6C:62:6D:55:AD:8E</t>
   </si>
   <si>
-    <t>IK-PC</t>
-  </si>
-  <si>
     <t>98:90:96:BC:35:41</t>
   </si>
   <si>
@@ -1621,27 +1591,12 @@
     <t>ELITEGROUP COMPUTER SYSTEM</t>
   </si>
   <si>
-    <t>3C:07:54:7D:FC:A7</t>
-  </si>
-  <si>
     <t>98:90:96:BC:36:07</t>
   </si>
   <si>
     <t>CDL581557</t>
   </si>
   <si>
-    <t>C8:2A:14:0D:95:E5</t>
-  </si>
-  <si>
-    <t>ARTMAC3</t>
-  </si>
-  <si>
-    <t>Apple, Inc</t>
-  </si>
-  <si>
-    <t>00:1D:50:10:2E:08</t>
-  </si>
-  <si>
     <t>SPINETIX SA</t>
   </si>
   <si>
@@ -1660,18 +1615,12 @@
     <t>98:90:96:BC:33:7F</t>
   </si>
   <si>
-    <t>CMD581543</t>
-  </si>
-  <si>
     <t>00:26:55:42:2E:74</t>
   </si>
   <si>
     <t>OPAC_0912</t>
   </si>
   <si>
-    <t>A2:F5:FD:65:80:71, 86:C5:30:5C:3A:F2</t>
-  </si>
-  <si>
     <t>78:2B:CB:0A:3F:5C</t>
   </si>
   <si>
@@ -1690,15 +1639,6 @@
     <t>D4:BE:D9:B1:99:55</t>
   </si>
   <si>
-    <t>ADM5402</t>
-  </si>
-  <si>
-    <t>78:E3:B5:99:C8:3B</t>
-  </si>
-  <si>
-    <t>ILR5406</t>
-  </si>
-  <si>
     <t>52:EF:E6:B2:3F:56</t>
   </si>
   <si>
@@ -1711,9 +1651,6 @@
     <t>1A:20:7C:00:66:D0</t>
   </si>
   <si>
-    <t>CIR001</t>
-  </si>
-  <si>
     <t>36:31:61:31:35:32</t>
   </si>
   <si>
@@ -1735,18 +1672,6 @@
     <t>00:0C:76:EA:C7:C7</t>
   </si>
   <si>
-    <t>18:03:73:4C:70:40</t>
-  </si>
-  <si>
-    <t>IRM5504</t>
-  </si>
-  <si>
-    <t>18:03:73:4D:2B:08</t>
-  </si>
-  <si>
-    <t>CAR_CDA5504</t>
-  </si>
-  <si>
     <t>90:2B:34:75:A4:5B</t>
   </si>
   <si>
@@ -1762,9 +1687,6 @@
     <t>CUSC</t>
   </si>
   <si>
-    <t>00:1D:92:22:52:FC</t>
-  </si>
-  <si>
     <t>MICRO-STAR INT'L CO.,LTD.</t>
   </si>
   <si>
@@ -1777,18 +1699,9 @@
     <t>00:1D:92:25:16:54</t>
   </si>
   <si>
-    <t>00:26:55:43:E0:F3</t>
-  </si>
-  <si>
-    <t>RSS0729</t>
-  </si>
-  <si>
     <t>78:2B:CB:26:8B:EB</t>
   </si>
   <si>
-    <t>OPAC5502</t>
-  </si>
-  <si>
     <t>F0:1F:AF:EA:22:03</t>
   </si>
   <si>
@@ -1798,9 +1711,6 @@
     <t>F0:1F:AF:EA:20:EB</t>
   </si>
   <si>
-    <t>CMD5218</t>
-  </si>
-  <si>
     <t>EC:B1:D7:84:46:68</t>
   </si>
   <si>
@@ -1810,132 +1720,30 @@
     <t>00:1D:92:22:52:80</t>
   </si>
   <si>
-    <t>64:00:6A:7B:2A:AB</t>
-  </si>
-  <si>
-    <t>IRM591622</t>
-  </si>
-  <si>
     <t>36:33:65:35:63:36</t>
   </si>
   <si>
-    <t>00:1D:50:00:43:5E</t>
-  </si>
-  <si>
-    <t>00:26:55:42:30:05</t>
-  </si>
-  <si>
-    <t>CDL5249</t>
-  </si>
-  <si>
     <t>92:02:94:B4:9A:75</t>
   </si>
   <si>
-    <t>64:00:6A:7B:21:1F</t>
-  </si>
-  <si>
-    <t>CDA1617</t>
-  </si>
-  <si>
-    <t>40:6C:8F:1A:07:ED</t>
-  </si>
-  <si>
-    <t>KENGS-IMAC</t>
-  </si>
-  <si>
-    <t>00:02:65:14:10:98</t>
-  </si>
-  <si>
-    <t>18:03:73:4D:2B:16</t>
-  </si>
-  <si>
     <t>00:11:0A:C3:27:7D</t>
   </si>
   <si>
     <t>NPIC3277D</t>
   </si>
   <si>
-    <t>00:00:AA:E2:ED:1D</t>
-  </si>
-  <si>
-    <t>CIR19</t>
-  </si>
-  <si>
-    <t>NPIC2D595</t>
-  </si>
-  <si>
-    <t>98:90:96:BC:3A:AA</t>
-  </si>
-  <si>
-    <t>ILR581541</t>
-  </si>
-  <si>
-    <t>18:03:73:4D:2B:40</t>
-  </si>
-  <si>
-    <t>CIR55247</t>
-  </si>
-  <si>
-    <t>00:1E:4F:49:B9:59</t>
-  </si>
-  <si>
-    <t>AMD14-51</t>
-  </si>
-  <si>
     <t>00:1D:50:00:3F:C6</t>
   </si>
   <si>
-    <t xml:space="preserve">SPINETIX SA </t>
-  </si>
-  <si>
     <t>00:1D:50:00:43:4D</t>
   </si>
   <si>
     <t>00:1D:50:00:45:F3</t>
   </si>
   <si>
-    <t>18:03:73:4D:25:97</t>
-  </si>
-  <si>
-    <t>CAR_CDA5506</t>
-  </si>
-  <si>
-    <t>00:21:70:66:39:8F</t>
-  </si>
-  <si>
-    <t>78:E3:B5:99:CD:46</t>
-  </si>
-  <si>
-    <t>TIC5410</t>
-  </si>
-  <si>
-    <t>00:21:70:66:59:5C</t>
-  </si>
-  <si>
-    <t>00:21:70:66:30:C8</t>
-  </si>
-  <si>
-    <t>98:90:96:BC:3A:80</t>
-  </si>
-  <si>
-    <t>CDL581553</t>
-  </si>
-  <si>
-    <t>78:E3:B5:99:CD:4A</t>
-  </si>
-  <si>
     <t>WORKGROUP</t>
   </si>
   <si>
-    <t>98:90:96:BC:3A:6A</t>
-  </si>
-  <si>
-    <t>CDL581555</t>
-  </si>
-  <si>
-    <t>00:21:70:66:59:79</t>
-  </si>
-  <si>
     <t>00:26:B9:2B:D3:B9</t>
   </si>
   <si>
@@ -1951,12 +1759,6 @@
     <t>62:35:36:39:31:61</t>
   </si>
   <si>
-    <t>88:51:FB:3F:28:FA</t>
-  </si>
-  <si>
-    <t>Hewlett Packard</t>
-  </si>
-  <si>
     <t>62:37:61:62:32:64</t>
   </si>
   <si>
@@ -1982,17 +1784,113 @@
   </si>
   <si>
     <t>NPI84CC30</t>
+  </si>
+  <si>
+    <t>86:C5:30:5C:3A:F2</t>
+  </si>
+  <si>
+    <t>08:5B:0E:3E:DF:20</t>
+  </si>
+  <si>
+    <t>Fortinet, Inc.</t>
+  </si>
+  <si>
+    <t>72:F9:34:7F:48:36</t>
+  </si>
+  <si>
+    <t>00:80:77:91:6B:D6</t>
+  </si>
+  <si>
+    <t>BRN_916BD6</t>
+  </si>
+  <si>
+    <t>BROTHER INDUSTRIES, LTD.</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:69</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:3F:C7</t>
+  </si>
+  <si>
+    <t>NPI747248</t>
+  </si>
+  <si>
+    <t>78:E3:B5:99:CD:4C</t>
+  </si>
+  <si>
+    <t>TIC5409</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AD:B7</t>
+  </si>
+  <si>
+    <t>TIC5352</t>
+  </si>
+  <si>
+    <t>40:6C:8F:19:AC:41,9C:B6:54:1B:B4:0E</t>
+  </si>
+  <si>
+    <t>none,NPI1BB40E</t>
+  </si>
+  <si>
+    <t>44:87:FC:A2:AD:44</t>
+  </si>
+  <si>
+    <t>ELITEGROUP COMPUTER SYSTEM CO., LTD.</t>
+  </si>
+  <si>
+    <t>ARTS_</t>
+  </si>
+  <si>
+    <t>00:25:90:73:27:EC</t>
+  </si>
+  <si>
+    <t>ILR-5526</t>
+  </si>
+  <si>
+    <t>NARAPONGS-IMAC</t>
+  </si>
+  <si>
+    <t>18:03:73:4D:2B:46</t>
+  </si>
+  <si>
+    <t>IRM5502</t>
+  </si>
+  <si>
+    <t>RSS5545</t>
+  </si>
+  <si>
+    <t>B0:83:FE:6D:1F:63,00:20:EF:20:87:89</t>
+  </si>
+  <si>
+    <t>none,USC CORPORATION</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AC:27</t>
+  </si>
+  <si>
+    <t>64:00:6A:7B:32:DC</t>
+  </si>
+  <si>
+    <t>CIH1624</t>
+  </si>
+  <si>
+    <t>6C:62:6D:55:AB:A6</t>
+  </si>
+  <si>
+    <t>CAR_ACQ28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2017,7 +1915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2033,10 +1931,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2320,16 +2217,16 @@
       <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2397,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2414,19 +2311,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2443,13 +2340,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2466,13 +2363,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2489,13 +2386,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2512,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2441,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2558,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2586,25 +2483,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2621,25 +2518,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2656,25 +2553,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2685,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2700,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2711,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2728,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2745,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2762,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2779,13 +2676,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2802,13 +2699,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2816,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2831,13 +2728,13 @@
       </c>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2854,13 +2751,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2877,13 +2774,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2900,31 +2797,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2941,19 +2838,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2970,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2982,25 +2879,25 @@
       </c>
       <c r="E57"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3017,49 +2914,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="E62"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="E64"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="E66"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="E67"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="E68"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3076,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3093,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3110,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3127,79 +3024,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="E73"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="E79"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="E84"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3216,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3233,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3250,37 +3147,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="E88"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="E89"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="E90"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="E91"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="E92"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3297,61 +3194,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="E94"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="E95"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="E96"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="E97"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="E98"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="E99"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="E100"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="E101"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="E102"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3365,37 +3262,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="E104"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="E105"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="E106"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="E107"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="E108"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3409,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3423,19 +3320,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="E111"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="E112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3449,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3463,13 +3360,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="E115"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3483,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3497,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -3511,25 +3408,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="E119"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="E120"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="E121"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -3543,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -3551,7 +3448,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -3559,7 +3456,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3576,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3584,7 +3481,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -3601,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -3609,7 +3506,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -3626,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -3634,7 +3531,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -3642,7 +3539,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -3659,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -3667,7 +3564,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -3675,7 +3572,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -3692,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -3700,7 +3597,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -3717,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -3725,7 +3622,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -3742,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -3759,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -3776,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -3793,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -3801,7 +3698,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -3818,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -3826,7 +3723,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -3834,7 +3731,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -3842,7 +3739,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -3850,7 +3747,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -3858,7 +3755,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -3866,7 +3763,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -3874,7 +3771,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -3882,7 +3779,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -3890,7 +3787,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -3898,7 +3795,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -3906,7 +3803,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -3914,7 +3811,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -3922,7 +3819,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -3930,7 +3827,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -3938,7 +3835,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -3946,7 +3843,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -3963,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -3971,7 +3868,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -3988,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -4005,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -4013,7 +3910,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -4021,7 +3918,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -4029,7 +3926,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -4037,7 +3934,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -4045,7 +3942,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -4053,7 +3950,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -4061,7 +3958,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -4069,7 +3966,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -4077,7 +3974,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -4085,7 +3982,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -4093,7 +3990,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -4101,7 +3998,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -4109,7 +4006,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -4117,7 +4014,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -4125,7 +4022,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -4133,7 +4030,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -4141,7 +4038,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -4149,7 +4046,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -4157,7 +4054,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -4165,7 +4062,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -4173,7 +4070,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -4181,7 +4078,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -4189,7 +4086,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -4197,7 +4094,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -4205,7 +4102,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -4213,7 +4110,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -4221,7 +4118,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -4229,7 +4126,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -4237,7 +4134,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -4245,7 +4142,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -4253,7 +4150,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -4261,7 +4158,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -4269,7 +4166,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -4277,7 +4174,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -4285,7 +4182,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -4293,7 +4190,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -4301,7 +4198,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -4309,7 +4206,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -4317,7 +4214,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -4325,7 +4222,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -4333,7 +4230,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -4341,7 +4238,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -4349,7 +4246,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -4357,7 +4254,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -4365,7 +4262,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -4373,7 +4270,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -4381,7 +4278,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -4389,7 +4286,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -4397,7 +4294,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -4405,7 +4302,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -4413,7 +4310,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -4421,7 +4318,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -4429,7 +4326,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -4437,7 +4334,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -4445,7 +4342,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -4462,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -4479,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -4487,7 +4384,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -4495,7 +4392,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -4512,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -4529,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -4546,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -4563,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -4580,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -4588,7 +4485,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -4605,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -4613,7 +4510,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -4621,7 +4518,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -4629,7 +4526,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -4637,7 +4534,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -4645,7 +4542,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -4653,7 +4550,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -4661,7 +4558,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -4669,7 +4566,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -4677,7 +4574,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -4685,7 +4582,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -4693,7 +4590,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -4701,7 +4598,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -4709,7 +4606,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -4717,7 +4614,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -4725,7 +4622,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -4733,7 +4630,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -4741,7 +4638,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -4749,7 +4646,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -4757,7 +4654,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -4765,7 +4662,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -4773,7 +4670,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -4781,7 +4678,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -4789,7 +4686,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -4806,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -4814,7 +4711,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -4839,15 +4736,15 @@
       <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4864,734 +4761,734 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="4"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="4"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="4"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="4"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="4"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" s="4"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" s="4"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" s="4"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" s="4"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="4"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="4"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="4"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="4"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="4"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" s="4"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="4"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="B112" s="4"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
       <c r="B113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" s="4"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" s="4"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" s="4"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" s="4"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
       <c r="B120" s="4"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -5600,7 +5497,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -5609,7 +5506,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -5626,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -5635,7 +5532,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -5652,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -5661,7 +5558,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -5678,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -5687,7 +5584,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -5696,7 +5593,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -5713,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -5722,7 +5619,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -5731,7 +5628,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -5748,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -5757,7 +5654,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -5774,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -5789,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -5806,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -5823,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -5840,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -5857,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -5874,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -5891,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -5904,7 +5801,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -5919,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -5928,7 +5825,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -5937,7 +5834,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -5946,7 +5843,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -5955,7 +5852,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -5964,7 +5861,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -5973,7 +5870,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -5990,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -5999,7 +5896,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -6008,7 +5905,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -6017,7 +5914,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -6030,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -6039,7 +5936,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -6048,7 +5945,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -6057,7 +5954,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -6072,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -6085,7 +5982,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -6100,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -6115,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -6124,7 +6021,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -6133,7 +6030,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -6142,7 +6039,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -6151,7 +6048,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -6160,7 +6057,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -6169,7 +6066,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -6178,7 +6075,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -6187,7 +6084,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -6196,7 +6093,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -6205,7 +6102,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -6214,7 +6111,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -6223,7 +6120,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -6232,7 +6129,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -6241,7 +6138,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -6250,7 +6147,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -6259,7 +6156,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -6268,7 +6165,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -6277,7 +6174,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -6286,7 +6183,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -6295,7 +6192,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -6304,7 +6201,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -6321,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -6330,7 +6227,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -6339,7 +6236,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -6354,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -6369,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -6378,7 +6275,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -6387,7 +6284,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -6396,7 +6293,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -6405,7 +6302,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -6414,7 +6311,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -6423,7 +6320,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -6432,7 +6329,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -6441,7 +6338,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -6450,7 +6347,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -6459,7 +6356,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -6468,7 +6365,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -6477,7 +6374,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -6486,7 +6383,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -6495,7 +6392,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -6504,7 +6401,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -6513,7 +6410,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -6522,7 +6419,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -6531,7 +6428,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -6540,7 +6437,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -6549,7 +6446,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -6558,7 +6455,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -6567,7 +6464,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -6576,7 +6473,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -6585,7 +6482,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -6594,7 +6491,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -6603,7 +6500,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -6612,7 +6509,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -6621,7 +6518,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -6630,7 +6527,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -6647,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -6664,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -6673,7 +6570,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -6682,7 +6579,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -6699,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -6716,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -6733,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -6750,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -6767,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -6776,7 +6673,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -6793,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -6802,7 +6699,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -6811,7 +6708,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -6820,7 +6717,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -6829,7 +6726,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -6838,7 +6735,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -6847,7 +6744,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -6856,7 +6753,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -6865,7 +6762,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -6874,7 +6771,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -6889,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -6904,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -6913,7 +6810,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -6922,7 +6819,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -6931,7 +6828,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -6940,7 +6837,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -6949,7 +6846,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -6958,7 +6855,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -6967,7 +6864,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -6982,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -6997,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -7012,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -7021,7 +6918,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -7034,7 +6931,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -7047,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -7056,7 +6953,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -7081,19 +6978,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7110,41 +7007,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7152,1037 +7047,795 @@
         <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C11" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>555</v>
-      </c>
-      <c r="C12" t="s">
-        <v>556</v>
-      </c>
-      <c r="D12" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C15" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="D20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="D24" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>569</v>
-      </c>
-      <c r="C25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" t="s">
-        <v>572</v>
-      </c>
-      <c r="D26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C29" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="C30" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D30" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>578</v>
-      </c>
-      <c r="D31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C32" s="7"/>
+      <c r="B32" t="s">
+        <v>554</v>
+      </c>
       <c r="D32" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="D33" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>583</v>
-      </c>
-      <c r="C34" t="s">
-        <v>584</v>
-      </c>
-      <c r="D34" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C38" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="D38" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>589</v>
-      </c>
-      <c r="C40" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="D40" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="D42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="D43" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
-      <c r="B45" t="s">
-        <v>594</v>
-      </c>
-      <c r="C45" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" t="s">
-        <v>597</v>
-      </c>
-      <c r="D48" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="B51" t="s">
-        <v>598</v>
-      </c>
-      <c r="C51" t="s">
-        <v>599</v>
-      </c>
-      <c r="D51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D55" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>601</v>
-      </c>
-      <c r="C57" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
-        <v>603</v>
-      </c>
-      <c r="C61" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
-        <v>605</v>
-      </c>
-      <c r="D64" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>606</v>
-      </c>
-      <c r="D65" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="C68" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="D68" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
-      <c r="B69" t="s">
-        <v>609</v>
-      </c>
-      <c r="C69" t="s">
-        <v>610</v>
-      </c>
-      <c r="D69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" t="s">
-        <v>611</v>
-      </c>
-      <c r="D70" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="C72" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="D72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
-      <c r="B73" t="s">
-        <v>614</v>
-      </c>
-      <c r="C73" t="s">
-        <v>615</v>
-      </c>
-      <c r="D73" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
-        <v>616</v>
-      </c>
-      <c r="C74" t="s">
-        <v>617</v>
-      </c>
-      <c r="D74" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="D76" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>620</v>
+        <v>569</v>
       </c>
       <c r="D77" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>621</v>
+        <v>570</v>
       </c>
       <c r="D78" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" t="s">
-        <v>622</v>
-      </c>
-      <c r="C79" t="s">
-        <v>623</v>
-      </c>
-      <c r="D79" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
-      <c r="B80" t="s">
-        <v>624</v>
-      </c>
-      <c r="D80" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>625</v>
-      </c>
-      <c r="C81" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="D82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
-      <c r="B83" t="s">
-        <v>628</v>
-      </c>
-      <c r="D83" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" t="s">
-        <v>629</v>
-      </c>
-      <c r="C84" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
-      <c r="B87" t="s">
-        <v>631</v>
-      </c>
-      <c r="C87" t="s">
-        <v>632</v>
-      </c>
-      <c r="D87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
-        <v>633</v>
-      </c>
-      <c r="C90" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
-      <c r="B93" t="s">
-        <v>635</v>
-      </c>
-      <c r="D93" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="C96" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="D96" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
-      <c r="B104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
-      <c r="B106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" t="s">
-        <v>641</v>
-      </c>
-      <c r="C107" t="s">
-        <v>632</v>
-      </c>
-      <c r="D107" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="C112" t="s">
-        <v>645</v>
+        <v>579</v>
       </c>
       <c r="D112" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
       <c r="C114" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
       <c r="D114" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="C115" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="D115" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -8190,69 +7843,61 @@
         <v>328</v>
       </c>
       <c r="C116" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
       <c r="D116" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>595</v>
+      </c>
+      <c r="D120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C122" t="s">
-        <v>452</v>
-      </c>
-      <c r="D122" t="s">
-        <v>453</v>
-      </c>
       <c r="E122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -8261,18 +7906,24 @@
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="B125" t="s">
+        <v>596</v>
+      </c>
+      <c r="C125" t="s">
+        <v>597</v>
+      </c>
+      <c r="D125" t="s">
+        <v>323</v>
+      </c>
       <c r="E125" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -8281,22 +7932,22 @@
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -8305,7 +7956,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -8314,46 +7965,54 @@
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>598</v>
+      </c>
+      <c r="C130" t="s">
+        <v>599</v>
+      </c>
+      <c r="D130" t="s">
+        <v>465</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -8362,64 +8021,56 @@
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B134" t="s">
+        <v>457</v>
+      </c>
+      <c r="C134" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134" t="s">
         <v>459</v>
-      </c>
-      <c r="C134" t="s">
-        <v>460</v>
-      </c>
-      <c r="D134" t="s">
-        <v>461</v>
       </c>
       <c r="E134" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C136" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C137" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D137" t="s">
         <v>323</v>
@@ -8428,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -8437,22 +8088,22 @@
       <c r="D138" s="5"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -8461,7 +8112,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -8470,29 +8121,29 @@
       <c r="D141" s="1"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C142" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D142" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C143" t="s">
         <v>322</v>
@@ -8504,39 +8155,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D144" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>473</v>
-      </c>
-      <c r="C145" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="C145" t="s">
+        <v>601</v>
+      </c>
       <c r="D145" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E145" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -8551,24 +8204,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C147" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D147" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -8577,29 +8230,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>602</v>
+      </c>
+      <c r="D149" t="s">
+        <v>603</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C150" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -8608,24 +8266,24 @@
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C152" t="s">
-        <v>480</v>
+        <v>604</v>
       </c>
       <c r="D152" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -8642,7 +8300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -8651,7 +8309,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -8660,7 +8318,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -8669,7 +8327,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -8677,7 +8335,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -8686,22 +8344,22 @@
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -8710,7 +8368,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -8725,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -8738,7 +8396,7 @@
       </c>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -8753,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -8768,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -8777,7 +8435,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -8786,7 +8444,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -8795,7 +8453,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -8804,16 +8462,21 @@
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>605</v>
+      </c>
+      <c r="D169" t="s">
+        <v>502</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -8822,7 +8485,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -8831,22 +8494,22 @@
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C172" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -8855,15 +8518,15 @@
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C174" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D174" t="s">
         <v>323</v>
@@ -8872,41 +8535,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C175" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D175" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E175" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C176" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D176" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -8915,29 +8578,29 @@
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C178" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="D178" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E178" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D179" t="s">
         <v>323</v>
@@ -8946,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -8955,7 +8618,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -8964,36 +8627,39 @@
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>494</v>
+        <v>490</v>
+      </c>
+      <c r="C182" t="s">
+        <v>607</v>
       </c>
       <c r="D182" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C183" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -9002,7 +8668,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -9011,12 +8677,12 @@
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D186" t="s">
         <v>323</v>
@@ -9025,16 +8691,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+      <c r="B187" t="s">
+        <v>608</v>
+      </c>
+      <c r="C187" t="s">
+        <v>609</v>
+      </c>
+      <c r="D187" t="s">
+        <v>453</v>
+      </c>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -9043,74 +8715,65 @@
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="1"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>340</v>
+      </c>
+      <c r="D189" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C190" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D190" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E190" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B191" t="s">
-        <v>501</v>
-      </c>
-      <c r="D191" t="s">
-        <v>467</v>
-      </c>
-      <c r="E191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B192" t="s">
-        <v>502</v>
-      </c>
-      <c r="C192" t="s">
-        <v>503</v>
-      </c>
       <c r="D192" s="1"/>
-      <c r="E192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D193" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E193" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -9119,7 +8782,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -9128,7 +8791,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -9137,38 +8800,38 @@
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D197" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E197" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C198" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D198" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -9177,22 +8840,22 @@
       <c r="D199" s="1"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C200" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -9201,37 +8864,39 @@
       <c r="D201" s="1"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C202" t="s">
-        <v>513</v>
+        <v>610</v>
       </c>
       <c r="D202" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>514</v>
+        <v>611</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
+      <c r="D203" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="E203" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -9240,7 +8905,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -9249,7 +8914,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -9258,24 +8923,24 @@
       <c r="D206" s="1"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C207" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="D207" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E207" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -9284,7 +8949,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -9293,7 +8958,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -9302,31 +8967,36 @@
       <c r="D210" s="1"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>613</v>
+      </c>
+      <c r="D211" t="s">
+        <v>465</v>
+      </c>
+      <c r="E211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C212" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -9335,7 +9005,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -9344,7 +9014,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -9353,15 +9023,15 @@
       <c r="D215" s="1"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C216" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="D216" t="s">
         <v>323</v>
@@ -9370,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -9379,95 +9049,101 @@
       <c r="D217" s="1"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="1"/>
+      <c r="B218" t="s">
+        <v>614</v>
+      </c>
+      <c r="C218" t="s">
+        <v>615</v>
+      </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C219" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C220" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C221" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D221" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E221" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C222" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C223" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D223" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -9476,7 +9152,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -9485,21 +9161,13 @@
       <c r="D225" s="1"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B226" t="s">
-        <v>531</v>
-      </c>
-      <c r="D226" t="s">
-        <v>474</v>
-      </c>
-      <c r="E226" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -9508,7 +9176,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -9517,119 +9185,106 @@
       <c r="D228" s="1"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C229" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B230" t="s">
-        <v>534</v>
-      </c>
-      <c r="C230" t="s">
-        <v>535</v>
-      </c>
-      <c r="D230" t="s">
-        <v>536</v>
-      </c>
-      <c r="E230" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B231" t="s">
-        <v>537</v>
-      </c>
-      <c r="D231" t="s">
-        <v>538</v>
-      </c>
-      <c r="E231" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B232" s="3"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
+      <c r="B232" t="s">
+        <v>616</v>
+      </c>
+      <c r="C232" t="s">
+        <v>617</v>
+      </c>
+      <c r="D232" t="s">
+        <v>465</v>
+      </c>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C233" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="D233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E233" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C234" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="D234" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E234" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C235" t="s">
-        <v>544</v>
+        <v>488</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C236" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D236" t="s">
         <v>323</v>
@@ -9638,7 +9293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -9647,7 +9302,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -9656,7 +9311,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -9665,7 +9320,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -9680,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -9695,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -9704,7 +9359,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -9713,7 +9368,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -9722,7 +9377,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -9731,7 +9386,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -9740,7 +9395,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -9749,7 +9404,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -9758,22 +9413,14 @@
       <c r="D248" s="1"/>
       <c r="E248" s="2"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B249" t="s">
-        <v>347</v>
-      </c>
       <c r="C249" s="1"/>
-      <c r="D249" t="s">
-        <v>348</v>
-      </c>
-      <c r="E249" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -9788,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -9803,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -9812,7 +9459,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="2"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -9825,7 +9472,7 @@
       </c>
       <c r="E253" s="2"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -9838,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -9847,7 +9494,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="2"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>

--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="ปัจจุบัน (10-6-2559)" sheetId="3" r:id="rId3"/>
     <sheet name="ปัจจุบัน (13-6-2559)" sheetId="5" r:id="rId4"/>
     <sheet name="ปัจจุบัน (14-6-2559)" sheetId="4" r:id="rId5"/>
+    <sheet name="ปัจจุบัน (15-6-2559)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="646">
   <si>
     <t>IP Address</t>
   </si>
@@ -1945,6 +1946,27 @@
   </si>
   <si>
     <t>9C:B6:54:1B:B4:0E</t>
+  </si>
+  <si>
+    <t>88:5A:92:F3:93:4D</t>
+  </si>
+  <si>
+    <t>08:00:37:0D:A1:38</t>
+  </si>
+  <si>
+    <t>F8:72:EA:B7:35:80</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:45:ED</t>
+  </si>
+  <si>
+    <t>1C:87:2C:C7:A7:24</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cisco</t>
   </si>
 </sst>
 </file>
@@ -9581,8 +9603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12211,12 +12233,7 @@
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B256" t="s">
-        <v>354</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="2">
@@ -12232,8 +12249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14197,4 +14214,3127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="H258" sqref="H258"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" t="s">
+        <v>644</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>639</v>
+      </c>
+      <c r="C16" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>639</v>
+      </c>
+      <c r="C17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>544</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C22" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>545</v>
+      </c>
+      <c r="C23" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C24" t="s">
+        <v>644</v>
+      </c>
+      <c r="D24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>639</v>
+      </c>
+      <c r="C26" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>640</v>
+      </c>
+      <c r="C27" t="s">
+        <v>644</v>
+      </c>
+      <c r="D27" t="s">
+        <v>582</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>639</v>
+      </c>
+      <c r="C28" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>641</v>
+      </c>
+      <c r="C31" t="s">
+        <v>644</v>
+      </c>
+      <c r="D31" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" t="s">
+        <v>644</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>639</v>
+      </c>
+      <c r="C35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>639</v>
+      </c>
+      <c r="C37" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>557</v>
+      </c>
+      <c r="C38" t="s">
+        <v>644</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+      <c r="C39" t="s">
+        <v>644</v>
+      </c>
+      <c r="D39" t="s">
+        <v>559</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" t="s">
+        <v>644</v>
+      </c>
+      <c r="D40" t="s">
+        <v>559</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>561</v>
+      </c>
+      <c r="C41" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" t="s">
+        <v>644</v>
+      </c>
+      <c r="D42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" t="s">
+        <v>644</v>
+      </c>
+      <c r="D43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>639</v>
+      </c>
+      <c r="C44" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>639</v>
+      </c>
+      <c r="C45" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>564</v>
+      </c>
+      <c r="C46" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>639</v>
+      </c>
+      <c r="C47" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>639</v>
+      </c>
+      <c r="C48" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>639</v>
+      </c>
+      <c r="C49" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>639</v>
+      </c>
+      <c r="C50" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>639</v>
+      </c>
+      <c r="C51" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>639</v>
+      </c>
+      <c r="C52" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>639</v>
+      </c>
+      <c r="C53" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>639</v>
+      </c>
+      <c r="C54" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>639</v>
+      </c>
+      <c r="C55" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>565</v>
+      </c>
+      <c r="C56" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>589</v>
+      </c>
+      <c r="C57" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>639</v>
+      </c>
+      <c r="C58" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>639</v>
+      </c>
+      <c r="C59" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>639</v>
+      </c>
+      <c r="C60" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>639</v>
+      </c>
+      <c r="C61" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>639</v>
+      </c>
+      <c r="C62" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>639</v>
+      </c>
+      <c r="C63" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>639</v>
+      </c>
+      <c r="C64" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>618</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
+      <c r="D65" t="s">
+        <v>582</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>639</v>
+      </c>
+      <c r="C66" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C67" t="s">
+        <v>621</v>
+      </c>
+      <c r="D67" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" t="s">
+        <v>567</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>639</v>
+      </c>
+      <c r="C69" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>639</v>
+      </c>
+      <c r="C71" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>639</v>
+      </c>
+      <c r="C73" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>639</v>
+      </c>
+      <c r="C74" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>639</v>
+      </c>
+      <c r="C75" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>568</v>
+      </c>
+      <c r="C76" t="s">
+        <v>644</v>
+      </c>
+      <c r="D76" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>569</v>
+      </c>
+      <c r="C77" t="s">
+        <v>644</v>
+      </c>
+      <c r="D77" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>570</v>
+      </c>
+      <c r="C78" t="s">
+        <v>644</v>
+      </c>
+      <c r="D78" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>642</v>
+      </c>
+      <c r="C79" t="s">
+        <v>644</v>
+      </c>
+      <c r="D79" t="s">
+        <v>523</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>639</v>
+      </c>
+      <c r="C80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>639</v>
+      </c>
+      <c r="C81" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>594</v>
+      </c>
+      <c r="C82" t="s">
+        <v>644</v>
+      </c>
+      <c r="D82" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>639</v>
+      </c>
+      <c r="C83" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>639</v>
+      </c>
+      <c r="C84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>625</v>
+      </c>
+      <c r="C85" t="s">
+        <v>626</v>
+      </c>
+      <c r="D85" t="s">
+        <v>627</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>639</v>
+      </c>
+      <c r="C86" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>639</v>
+      </c>
+      <c r="C87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>639</v>
+      </c>
+      <c r="C88" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>639</v>
+      </c>
+      <c r="C89" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>639</v>
+      </c>
+      <c r="C90" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>639</v>
+      </c>
+      <c r="C91" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>639</v>
+      </c>
+      <c r="C92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>639</v>
+      </c>
+      <c r="C93" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>639</v>
+      </c>
+      <c r="C94" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>639</v>
+      </c>
+      <c r="C95" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>639</v>
+      </c>
+      <c r="C97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>639</v>
+      </c>
+      <c r="C98" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>639</v>
+      </c>
+      <c r="C99" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>639</v>
+      </c>
+      <c r="C100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>574</v>
+      </c>
+      <c r="C101" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>575</v>
+      </c>
+      <c r="C102" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>576</v>
+      </c>
+      <c r="C103" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>643</v>
+      </c>
+      <c r="C104" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>639</v>
+      </c>
+      <c r="C105" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>639</v>
+      </c>
+      <c r="C106" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>632</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>627</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>577</v>
+      </c>
+      <c r="C108" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>639</v>
+      </c>
+      <c r="C109" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>639</v>
+      </c>
+      <c r="C110" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>639</v>
+      </c>
+      <c r="C111" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>578</v>
+      </c>
+      <c r="C112" t="s">
+        <v>579</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>639</v>
+      </c>
+      <c r="C113" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" t="s">
+        <v>582</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>639</v>
+      </c>
+      <c r="C115" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>585</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>639</v>
+      </c>
+      <c r="C117" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>639</v>
+      </c>
+      <c r="C118" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>639</v>
+      </c>
+      <c r="C119" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>639</v>
+      </c>
+      <c r="C120" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>639</v>
+      </c>
+      <c r="C121" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>639</v>
+      </c>
+      <c r="C122" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>639</v>
+      </c>
+      <c r="C123" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>639</v>
+      </c>
+      <c r="C124" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>639</v>
+      </c>
+      <c r="C125" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>639</v>
+      </c>
+      <c r="C126" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>639</v>
+      </c>
+      <c r="C127" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>639</v>
+      </c>
+      <c r="C128" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>639</v>
+      </c>
+      <c r="C129" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>639</v>
+      </c>
+      <c r="C130" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>639</v>
+      </c>
+      <c r="C131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>639</v>
+      </c>
+      <c r="C132" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>639</v>
+      </c>
+      <c r="C133" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>635</v>
+      </c>
+      <c r="C134" t="s">
+        <v>636</v>
+      </c>
+      <c r="D134" t="s">
+        <v>637</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>639</v>
+      </c>
+      <c r="C135" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>639</v>
+      </c>
+      <c r="C136" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>639</v>
+      </c>
+      <c r="C137" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>639</v>
+      </c>
+      <c r="C138" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>639</v>
+      </c>
+      <c r="C139" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>639</v>
+      </c>
+      <c r="C140" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>639</v>
+      </c>
+      <c r="C141" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>639</v>
+      </c>
+      <c r="C142" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>639</v>
+      </c>
+      <c r="C144" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>638</v>
+      </c>
+      <c r="C145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>639</v>
+      </c>
+      <c r="C146" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>639</v>
+      </c>
+      <c r="C147" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>639</v>
+      </c>
+      <c r="C148" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>639</v>
+      </c>
+      <c r="C149" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>639</v>
+      </c>
+      <c r="C150" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>639</v>
+      </c>
+      <c r="C151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>639</v>
+      </c>
+      <c r="C152" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>639</v>
+      </c>
+      <c r="C154" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>639</v>
+      </c>
+      <c r="C155" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>639</v>
+      </c>
+      <c r="C156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>639</v>
+      </c>
+      <c r="C158" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>639</v>
+      </c>
+      <c r="C159" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>639</v>
+      </c>
+      <c r="C160" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="C161" t="s">
+        <v>644</v>
+      </c>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" t="s">
+        <v>644</v>
+      </c>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" t="s">
+        <v>644</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" t="s">
+        <v>644</v>
+      </c>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>639</v>
+      </c>
+      <c r="C165" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>639</v>
+      </c>
+      <c r="C166" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>639</v>
+      </c>
+      <c r="C167" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>639</v>
+      </c>
+      <c r="C168" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>639</v>
+      </c>
+      <c r="C169" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>639</v>
+      </c>
+      <c r="C170" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>639</v>
+      </c>
+      <c r="C171" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>639</v>
+      </c>
+      <c r="C172" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" t="s">
+        <v>639</v>
+      </c>
+      <c r="C173" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>639</v>
+      </c>
+      <c r="C174" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>639</v>
+      </c>
+      <c r="C175" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>639</v>
+      </c>
+      <c r="C176" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" t="s">
+        <v>639</v>
+      </c>
+      <c r="C177" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>639</v>
+      </c>
+      <c r="C178" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>639</v>
+      </c>
+      <c r="C179" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>639</v>
+      </c>
+      <c r="C180" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" t="s">
+        <v>639</v>
+      </c>
+      <c r="C181" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>639</v>
+      </c>
+      <c r="C182" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>639</v>
+      </c>
+      <c r="C183" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>639</v>
+      </c>
+      <c r="C184" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>639</v>
+      </c>
+      <c r="C185" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>337</v>
+      </c>
+      <c r="C186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" t="s">
+        <v>637</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>639</v>
+      </c>
+      <c r="C187" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>639</v>
+      </c>
+      <c r="C188" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>340</v>
+      </c>
+      <c r="C189" t="s">
+        <v>644</v>
+      </c>
+      <c r="D189" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>342</v>
+      </c>
+      <c r="C190" t="s">
+        <v>644</v>
+      </c>
+      <c r="D190" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>639</v>
+      </c>
+      <c r="C191" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>639</v>
+      </c>
+      <c r="C192" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>639</v>
+      </c>
+      <c r="C193" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>639</v>
+      </c>
+      <c r="C194" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>639</v>
+      </c>
+      <c r="C195" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>639</v>
+      </c>
+      <c r="C196" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>639</v>
+      </c>
+      <c r="C197" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>639</v>
+      </c>
+      <c r="C198" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>639</v>
+      </c>
+      <c r="C199" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>639</v>
+      </c>
+      <c r="C200" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>639</v>
+      </c>
+      <c r="C201" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>639</v>
+      </c>
+      <c r="C202" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>639</v>
+      </c>
+      <c r="C203" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>639</v>
+      </c>
+      <c r="C204" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205" t="s">
+        <v>639</v>
+      </c>
+      <c r="C205" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>639</v>
+      </c>
+      <c r="C206" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>639</v>
+      </c>
+      <c r="C207" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209" t="s">
+        <v>639</v>
+      </c>
+      <c r="C209" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>639</v>
+      </c>
+      <c r="C210" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>639</v>
+      </c>
+      <c r="C211" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>639</v>
+      </c>
+      <c r="C212" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>639</v>
+      </c>
+      <c r="C213" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215" t="s">
+        <v>639</v>
+      </c>
+      <c r="C215" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>639</v>
+      </c>
+      <c r="C216" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" t="s">
+        <v>639</v>
+      </c>
+      <c r="C217" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>639</v>
+      </c>
+      <c r="C218" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>639</v>
+      </c>
+      <c r="C219" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>639</v>
+      </c>
+      <c r="C220" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
+        <v>639</v>
+      </c>
+      <c r="C221" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>639</v>
+      </c>
+      <c r="C222" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223" t="s">
+        <v>639</v>
+      </c>
+      <c r="C223" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>639</v>
+      </c>
+      <c r="C224" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>639</v>
+      </c>
+      <c r="C225" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>639</v>
+      </c>
+      <c r="C226" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>639</v>
+      </c>
+      <c r="C227" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228" t="s">
+        <v>639</v>
+      </c>
+      <c r="C228" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>639</v>
+      </c>
+      <c r="C229" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>639</v>
+      </c>
+      <c r="C230" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>639</v>
+      </c>
+      <c r="C231" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
+        <v>639</v>
+      </c>
+      <c r="C232" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>639</v>
+      </c>
+      <c r="C233" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>639</v>
+      </c>
+      <c r="C234" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>639</v>
+      </c>
+      <c r="C235" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236" t="s">
+        <v>639</v>
+      </c>
+      <c r="C236" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" t="s">
+        <v>639</v>
+      </c>
+      <c r="C237" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" t="s">
+        <v>639</v>
+      </c>
+      <c r="C238" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" t="s">
+        <v>639</v>
+      </c>
+      <c r="C239" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" t="s">
+        <v>639</v>
+      </c>
+      <c r="C242" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" t="s">
+        <v>639</v>
+      </c>
+      <c r="C243" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" t="s">
+        <v>639</v>
+      </c>
+      <c r="C244" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" t="s">
+        <v>639</v>
+      </c>
+      <c r="C245" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" t="s">
+        <v>639</v>
+      </c>
+      <c r="C246" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" t="s">
+        <v>639</v>
+      </c>
+      <c r="C247" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" t="s">
+        <v>639</v>
+      </c>
+      <c r="C248" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" t="s">
+        <v>639</v>
+      </c>
+      <c r="C249" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" t="s">
+        <v>644</v>
+      </c>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" t="s">
+        <v>644</v>
+      </c>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" t="s">
+        <v>639</v>
+      </c>
+      <c r="C252" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="C253" t="s">
+        <v>644</v>
+      </c>
+      <c r="D253" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255" t="s">
+        <v>354</v>
+      </c>
+      <c r="C255" t="s">
+        <v>644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ปัจจุบัน (13-6-2559)" sheetId="5" r:id="rId4"/>
     <sheet name="ปัจจุบัน (14-6-2559)" sheetId="4" r:id="rId5"/>
     <sheet name="ปัจจุบัน (15-6-2559)" sheetId="6" r:id="rId6"/>
+    <sheet name="ปัจจุบัน (16-6-2559)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3051" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="648">
   <si>
     <t>IP Address</t>
   </si>
@@ -1967,6 +1968,12 @@
   </si>
   <si>
     <t>Cisco</t>
+  </si>
+  <si>
+    <t>00:20:EF:21:39:45</t>
+  </si>
+  <si>
+    <t>USC CORPORATION</t>
   </si>
 </sst>
 </file>
@@ -14220,7 +14227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A241" workbookViewId="0">
       <selection activeCell="H258" sqref="H258"/>
     </sheetView>
   </sheetViews>
@@ -17337,4 +17344,1936 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>544</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>545</v>
+      </c>
+      <c r="C23" t="s">
+        <v>546</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>640</v>
+      </c>
+      <c r="D27" t="s">
+        <v>582</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>562</v>
+      </c>
+      <c r="D42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>564</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>565</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>618</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
+      <c r="D65" t="s">
+        <v>582</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" t="s">
+        <v>567</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>590</v>
+      </c>
+      <c r="C72" t="s">
+        <v>591</v>
+      </c>
+      <c r="D72" t="s">
+        <v>592</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>568</v>
+      </c>
+      <c r="D76" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>570</v>
+      </c>
+      <c r="D78" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>642</v>
+      </c>
+      <c r="D79" t="s">
+        <v>523</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>594</v>
+      </c>
+      <c r="D82" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>625</v>
+      </c>
+      <c r="C85" t="s">
+        <v>626</v>
+      </c>
+      <c r="D85" t="s">
+        <v>627</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>628</v>
+      </c>
+      <c r="C86" t="s">
+        <v>629</v>
+      </c>
+      <c r="D86" t="s">
+        <v>582</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>630</v>
+      </c>
+      <c r="D97" t="s">
+        <v>631</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>574</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>575</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>576</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>632</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>627</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>577</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>578</v>
+      </c>
+      <c r="C112" t="s">
+        <v>579</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" t="s">
+        <v>582</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>585</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>595</v>
+      </c>
+      <c r="D120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>635</v>
+      </c>
+      <c r="C134" t="s">
+        <v>636</v>
+      </c>
+      <c r="D134" t="s">
+        <v>637</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>638</v>
+      </c>
+      <c r="C145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>331</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>337</v>
+      </c>
+      <c r="C186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" t="s">
+        <v>637</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>340</v>
+      </c>
+      <c r="D189" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>342</v>
+      </c>
+      <c r="D190" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>646</v>
+      </c>
+      <c r="D202" t="s">
+        <v>647</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MAC.xlsx
+++ b/MAC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ปัจจุบัน (14-6-2559)" sheetId="4" r:id="rId5"/>
     <sheet name="ปัจจุบัน (15-6-2559)" sheetId="6" r:id="rId6"/>
     <sheet name="ปัจจุบัน (16-6-2559)" sheetId="7" r:id="rId7"/>
+    <sheet name="ปัจจุบัน (17-6-2559)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="651">
   <si>
     <t>IP Address</t>
   </si>
@@ -1974,6 +1975,15 @@
   </si>
   <si>
     <t>USC CORPORATION</t>
+  </si>
+  <si>
+    <t>00:60:E0:40:EE:97</t>
+  </si>
+  <si>
+    <t>AXIOM TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>00:20:EF:20:87:89</t>
   </si>
 </sst>
 </file>
@@ -17350,7 +17360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -19276,4 +19286,1972 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" t="s">
+        <v>543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>544</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>545</v>
+      </c>
+      <c r="C23" t="s">
+        <v>546</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>640</v>
+      </c>
+      <c r="D27" t="s">
+        <v>582</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>548</v>
+      </c>
+      <c r="C29" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" t="s">
+        <v>550</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" t="s">
+        <v>553</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+      <c r="D39" t="s">
+        <v>559</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" t="s">
+        <v>559</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>561</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>562</v>
+      </c>
+      <c r="D42" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>564</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>565</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>589</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>618</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
+      <c r="D65" t="s">
+        <v>582</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>566</v>
+      </c>
+      <c r="C68" t="s">
+        <v>567</v>
+      </c>
+      <c r="D68" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>328</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>568</v>
+      </c>
+      <c r="D76" t="s">
+        <v>523</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" t="s">
+        <v>523</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>570</v>
+      </c>
+      <c r="D78" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>642</v>
+      </c>
+      <c r="D79" t="s">
+        <v>523</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>593</v>
+      </c>
+      <c r="D81" t="s">
+        <v>523</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>594</v>
+      </c>
+      <c r="D82" t="s">
+        <v>523</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>625</v>
+      </c>
+      <c r="C85" t="s">
+        <v>626</v>
+      </c>
+      <c r="D85" t="s">
+        <v>627</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>572</v>
+      </c>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>453</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>574</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>575</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>576</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>632</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>627</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>577</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>578</v>
+      </c>
+      <c r="C112" t="s">
+        <v>579</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>633</v>
+      </c>
+      <c r="C113" t="s">
+        <v>634</v>
+      </c>
+      <c r="D113" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" t="s">
+        <v>581</v>
+      </c>
+      <c r="D114" t="s">
+        <v>582</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>583</v>
+      </c>
+      <c r="C115" t="s">
+        <v>584</v>
+      </c>
+      <c r="D115" t="s">
+        <v>582</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>585</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>595</v>
+      </c>
+      <c r="D120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>635</v>
+      </c>
+      <c r="C134" t="s">
+        <v>636</v>
+      </c>
+      <c r="D134" t="s">
+        <v>637</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>468</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>323</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>638</v>
+      </c>
+      <c r="C145" t="s">
+        <v>325</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="D146" t="s">
+        <v>327</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" t="s">
+        <v>320</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>331</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161" t="s">
+        <v>333</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162" t="s">
+        <v>333</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="D164" t="s">
+        <v>333</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>648</v>
+      </c>
+      <c r="D167" t="s">
+        <v>649</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>337</v>
+      </c>
+      <c r="C186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" t="s">
+        <v>637</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>340</v>
+      </c>
+      <c r="D189" t="s">
+        <v>341</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>342</v>
+      </c>
+      <c r="D190" t="s">
+        <v>341</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>650</v>
+      </c>
+      <c r="D203" t="s">
+        <v>647</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" t="s">
+        <v>344</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" t="s">
+        <v>346</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="D250" t="s">
+        <v>348</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="D251" t="s">
+        <v>348</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" t="s">
+        <v>351</v>
+      </c>
+      <c r="D253" t="s">
+        <v>352</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>